--- a/ZBP_07_testovani.xlsx
+++ b/ZBP_07_testovani.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>trideni</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>5. 1. 2021</t>
+  </si>
+  <si>
+    <t>26. 1. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -170,10 +173,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +559,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,16 +629,19 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +677,7 @@
         <v>0.04</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="P2" t="n">
         <v>0.05</v>
@@ -697,16 +703,19 @@
       <c r="W2" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -768,16 +777,19 @@
       <c r="W3" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -839,16 +851,19 @@
       <c r="W4" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
         <v>0.005</v>
@@ -857,7 +872,7 @@
         <v>0.005</v>
       </c>
       <c r="F5" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
         <v>0.02</v>
@@ -875,7 +890,7 @@
         <v>0.03</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M5" t="n">
         <v>0.04</v>
@@ -890,10 +905,10 @@
         <v>0.09</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="R5" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="S5" t="n">
         <v>0.17</v>
@@ -910,16 +925,19 @@
       <c r="W5" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -981,16 +999,19 @@
       <c r="W6" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>0.005</v>
@@ -1052,16 +1073,19 @@
       <c r="W7" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1094,19 +1118,19 @@
         <v>0.03</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q8" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="S8" t="n">
         <v>0.12</v>
@@ -1123,16 +1147,19 @@
       <c r="W8" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1194,16 +1221,19 @@
       <c r="W9" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1265,16 +1295,19 @@
       <c r="W10" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1313,7 +1346,7 @@
         <v>0.03</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q11" t="n">
         <v>0.05</v>
@@ -1336,87 +1369,93 @@
       <c r="W11" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1478,25 +1517,28 @@
       <c r="W13" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="G14" t="n">
         <v>0.02</v>
@@ -1529,10 +1571,10 @@
         <v>0.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R14" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="S14" t="n">
         <v>0.13</v>
@@ -1549,16 +1591,19 @@
       <c r="W14" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1620,16 +1665,19 @@
       <c r="W15" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1691,16 +1739,19 @@
       <c r="W16" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1762,16 +1813,19 @@
       <c r="W17" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1833,16 +1887,19 @@
       <c r="W18" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1904,16 +1961,19 @@
       <c r="W19" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1949,13 +2009,13 @@
         <v>0.05</v>
       </c>
       <c r="O20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="P20" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="R20" t="n">
         <v>0.13</v>
@@ -1975,16 +2035,19 @@
       <c r="W20" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2046,16 +2109,19 @@
       <c r="W21" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2117,16 +2183,19 @@
       <c r="W22" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2150,28 +2219,28 @@
         <v>0.005</v>
       </c>
       <c r="K23" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="M23" t="n">
         <v>0.01</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="O23" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="P23" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R23" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="S23" t="n">
         <v>0.14</v>
@@ -2188,16 +2257,19 @@
       <c r="W23" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2259,16 +2331,19 @@
       <c r="W24" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2330,16 +2405,19 @@
       <c r="W25" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2366,7 +2444,7 @@
         <v>0.02</v>
       </c>
       <c r="L26" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M26" t="n">
         <v>0.03</v>
@@ -2401,16 +2479,19 @@
       <c r="W26" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2472,16 +2553,19 @@
       <c r="W27" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2543,16 +2627,19 @@
       <c r="W28" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
         <v>0.005</v>
@@ -2567,7 +2654,7 @@
         <v>0.01</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="I29" t="n">
         <v>0.015</v>
@@ -2591,13 +2678,13 @@
         <v>0.08</v>
       </c>
       <c r="P29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q29" t="n">
         <v>0.08</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0.1</v>
-      </c>
       <c r="R29" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="S29" t="n">
         <v>0.14</v>
@@ -2614,16 +2701,19 @@
       <c r="W29" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2685,16 +2775,19 @@
       <c r="W30" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
         <v>0.005</v>
@@ -2756,16 +2849,19 @@
       <c r="W31" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2792,19 +2888,19 @@
         <v>0.03</v>
       </c>
       <c r="M32" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="N32" t="n">
         <v>0.05</v>
       </c>
       <c r="O32" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="P32" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="R32" t="n">
         <v>0.13</v>
@@ -2824,16 +2920,19 @@
       <c r="W32" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2892,16 +2991,19 @@
       <c r="W33" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2960,16 +3062,19 @@
       <c r="W34" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3002,16 +3107,16 @@
         <v>0.03</v>
       </c>
       <c r="O35" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="P35" t="n">
         <v>0.09</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="R35" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="S35" t="n">
         <v>0.22</v>
@@ -3028,16 +3133,19 @@
       <c r="W35" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3096,16 +3204,19 @@
       <c r="W36" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3164,16 +3275,19 @@
       <c r="W37" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E38" t="n">
         <v>0.015</v>
@@ -3185,7 +3299,7 @@
         <v>0.005</v>
       </c>
       <c r="H38" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3197,7 +3311,7 @@
         <v>0.015</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M38" t="n">
         <v>0.03</v>
@@ -3209,13 +3323,13 @@
         <v>0.015</v>
       </c>
       <c r="P38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="R38" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="S38" t="n">
         <v>0.14</v>
@@ -3232,16 +3346,19 @@
       <c r="W38" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3300,16 +3417,19 @@
       <c r="W39" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E40" t="n">
         <v>0.01</v>
@@ -3368,16 +3488,19 @@
       <c r="W40" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E41" t="n">
         <v>0.005</v>
@@ -3392,7 +3515,7 @@
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J41" t="n">
         <v>0.05</v>
@@ -3404,22 +3527,22 @@
         <v>0.04</v>
       </c>
       <c r="M41" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="N41" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O41" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="P41" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="Q41" t="n">
         <v>0.1</v>
       </c>
       <c r="R41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="S41" t="n">
         <v>0.1</v>
@@ -3436,16 +3559,19 @@
       <c r="W41" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3504,16 +3630,19 @@
       <c r="W42" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E43" t="n">
         <v>0.01</v>
@@ -3572,16 +3701,19 @@
       <c r="W43" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3608,7 +3740,7 @@
         <v>0.02</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M44" t="n">
         <v>0.04</v>
@@ -3617,7 +3749,7 @@
         <v>0.06</v>
       </c>
       <c r="O44" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="P44" t="n">
         <v>0.04</v>
@@ -3643,87 +3775,93 @@
       <c r="W44" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -3785,16 +3923,19 @@
       <c r="W46" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -3830,16 +3971,16 @@
         <v>0.015</v>
       </c>
       <c r="O47" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="P47" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="R47" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="S47" t="n">
         <v>0.13</v>
@@ -3856,16 +3997,19 @@
       <c r="W47" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -3927,16 +4071,19 @@
       <c r="W48" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3998,16 +4145,19 @@
       <c r="W49" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -4031,7 +4181,7 @@
         <v>0.02</v>
       </c>
       <c r="K50" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L50" t="n">
         <v>0.03</v>
@@ -4046,13 +4196,13 @@
         <v>0.05</v>
       </c>
       <c r="P50" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="R50" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="S50" t="n">
         <v>0.16</v>
@@ -4069,16 +4219,19 @@
       <c r="W50" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -4140,16 +4293,19 @@
       <c r="W51" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -4211,22 +4367,25 @@
       <c r="W52" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="F53" t="n">
         <v>0.01</v>
@@ -4241,31 +4400,31 @@
         <v>0.015</v>
       </c>
       <c r="J53" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="K53" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L53" t="n">
         <v>0.03</v>
       </c>
       <c r="M53" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="N53" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="O53" t="n">
         <v>0.02</v>
       </c>
       <c r="P53" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q53" t="n">
         <v>0.09</v>
       </c>
       <c r="R53" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="S53" t="n">
         <v>0.11</v>
@@ -4282,16 +4441,19 @@
       <c r="W53" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -4353,16 +4515,19 @@
       <c r="W54" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -4424,16 +4589,19 @@
       <c r="W55" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -4448,7 +4616,7 @@
         <v>0.01</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I56" t="n">
         <v>0.02</v>
@@ -4457,28 +4625,28 @@
         <v>0.02</v>
       </c>
       <c r="K56" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L56" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M56" t="n">
         <v>0.06</v>
       </c>
       <c r="N56" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="O56" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P56" t="n">
         <v>0.05</v>
       </c>
-      <c r="P56" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="Q56" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="R56" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="S56" t="n">
         <v>0.17</v>
@@ -4495,16 +4663,19 @@
       <c r="W56" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -4566,16 +4737,19 @@
       <c r="W57" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -4637,10 +4811,13 @@
       <c r="W58" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4654,7 +4831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4662,7 +4839,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4729,13 +4906,16 @@
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -4797,13 +4977,16 @@
       <c r="V2" t="n">
         <v>2186</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -4865,13 +5048,16 @@
       <c r="V3" t="n">
         <v>522</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -4933,13 +5119,16 @@
       <c r="V4" t="n">
         <v>804</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -5001,13 +5190,16 @@
       <c r="V5" t="n">
         <v>860</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
         <v>1514</v>
@@ -5069,13 +5261,16 @@
       <c r="V6" t="n">
         <v>1056</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
         <v>1587</v>
@@ -5137,13 +5332,16 @@
       <c r="V7" t="n">
         <v>1130</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
         <v>1474</v>
@@ -5205,13 +5403,16 @@
       <c r="V8" t="n">
         <v>1021</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
         <v>307</v>
@@ -5273,13 +5474,16 @@
       <c r="V9" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
         <v>918</v>
@@ -5341,13 +5545,16 @@
       <c r="V10" t="n">
         <v>665</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
         <v>402</v>
@@ -5409,13 +5616,16 @@
       <c r="V11" t="n">
         <v>322</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s"/>
       <c r="D12" t="n">
@@ -5475,13 +5685,16 @@
       <c r="V12" t="n">
         <v>383</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="n">
@@ -5541,13 +5754,16 @@
       <c r="V13" t="n">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s"/>
       <c r="D14" t="n">
@@ -5607,13 +5823,16 @@
       <c r="V14" t="n">
         <v>104</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s"/>
       <c r="D15" t="n">
@@ -5673,13 +5892,16 @@
       <c r="V15" t="n">
         <v>659</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>553</v>
@@ -5741,13 +5963,16 @@
       <c r="V16" t="n">
         <v>400</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="n">
         <v>146</v>
@@ -5809,13 +6034,16 @@
       <c r="V17" t="n">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="n">
         <v>515</v>
@@ -5877,13 +6105,16 @@
       <c r="V18" t="n">
         <v>347</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
         <v>281</v>
@@ -5945,13 +6176,16 @@
       <c r="V19" t="n">
         <v>193</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
         <v>157</v>
@@ -6013,10 +6247,13 @@
       <c r="V20" t="n">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -6039,6 +6276,7 @@
       <c r="T21" t="s"/>
       <c r="U21" t="s"/>
       <c r="V21" t="s"/>
+      <c r="W21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_07_testovani.xlsx
+++ b/ZBP_07_testovani.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>trideni</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>26. 1. 2021</t>
+  </si>
+  <si>
+    <t>16. 2. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -173,10 +176,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,7 +562,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,22 +635,25 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0.015</v>
@@ -659,7 +665,7 @@
         <v>0.02</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="J2" t="n">
         <v>0.02</v>
@@ -677,7 +683,7 @@
         <v>0.04</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="P2" t="n">
         <v>0.05</v>
@@ -701,21 +707,24 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="X2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>0.08</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -780,16 +789,19 @@
       <c r="X3" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -852,27 +864,30 @@
         <v>0.06</v>
       </c>
       <c r="X4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
         <v>0.005</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="G5" t="n">
         <v>0.02</v>
@@ -890,22 +905,22 @@
         <v>0.03</v>
       </c>
       <c r="L5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.05</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.06</v>
       </c>
       <c r="O5" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R5" t="n">
         <v>0.12</v>
@@ -923,21 +938,24 @@
         <v>0.1</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="X5" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -997,101 +1015,107 @@
         <v>0.02</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>0.06</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F8" t="n">
         <v>0.015</v>
@@ -1106,19 +1130,19 @@
         <v>0.02</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K8" t="n">
         <v>0.03</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M8" t="n">
         <v>0.03</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="O8" t="n">
         <v>0.05</v>
@@ -1127,7 +1151,7 @@
         <v>0.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="R8" t="n">
         <v>0.13</v>
@@ -1145,21 +1169,24 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="X8" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>0.08</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,16 +1251,19 @@
       <c r="X9" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1296,18 +1326,21 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>0.08</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1346,7 +1379,7 @@
         <v>0.03</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q11" t="n">
         <v>0.05</v>
@@ -1367,169 +1400,178 @@
         <v>0.06</v>
       </c>
       <c r="W11" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W13" t="n">
         <v>0.06</v>
       </c>
-      <c r="X11" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="X13" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1571,7 +1613,7 @@
         <v>0.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="R14" t="n">
         <v>0.1</v>
@@ -1589,21 +1631,24 @@
         <v>0.1</v>
       </c>
       <c r="W14" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="X14" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>0.1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1666,18 +1711,21 @@
         <v>0.05</v>
       </c>
       <c r="X15" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>0.06</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1740,24 +1788,27 @@
         <v>0.06</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>0.09</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0.02</v>
@@ -1793,10 +1844,10 @@
         <v>0.05</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="S17" t="n">
         <v>0.11</v>
@@ -1811,21 +1862,24 @@
         <v>0.04</v>
       </c>
       <c r="W17" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="X17" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1888,18 +1942,21 @@
         <v>0.03</v>
       </c>
       <c r="X18" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>0.05</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1964,16 +2021,19 @@
       <c r="X19" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2003,13 +2063,13 @@
         <v>0.04</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="N20" t="n">
         <v>0.05</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="P20" t="n">
         <v>0.07000000000000001</v>
@@ -2018,7 +2078,7 @@
         <v>0.08</v>
       </c>
       <c r="R20" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="S20" t="n">
         <v>0.15</v>
@@ -2033,21 +2093,24 @@
         <v>0.08</v>
       </c>
       <c r="W20" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y20" t="n">
         <v>0.09</v>
       </c>
-      <c r="X20" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2110,18 +2173,21 @@
         <v>0.06</v>
       </c>
       <c r="X21" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>0.08</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2184,18 +2250,21 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>0.1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2219,28 +2288,28 @@
         <v>0.005</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="L23" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="O23" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="P23" t="n">
         <v>0.03</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="R23" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="S23" t="n">
         <v>0.14</v>
@@ -2255,21 +2324,24 @@
         <v>0.12</v>
       </c>
       <c r="W23" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="X23" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+        <v>0.15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2329,21 +2401,24 @@
         <v>0.03</v>
       </c>
       <c r="W24" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="X24" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2403,21 +2478,24 @@
         <v>0.04</v>
       </c>
       <c r="W25" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X25" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="X25" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2426,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G26" t="n">
         <v>0.03</v>
@@ -2444,7 +2522,7 @@
         <v>0.02</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="M26" t="n">
         <v>0.03</v>
@@ -2477,21 +2555,24 @@
         <v>0.04</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="X26" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2556,16 +2637,19 @@
       <c r="X27" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2625,21 +2709,24 @@
         <v>0.04</v>
       </c>
       <c r="W28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="X28" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
         <v>0.005</v>
@@ -2657,7 +2744,7 @@
         <v>0.015</v>
       </c>
       <c r="I29" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="J29" t="n">
         <v>0.04</v>
@@ -2681,10 +2768,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="R29" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S29" t="n">
         <v>0.14</v>
@@ -2704,16 +2791,19 @@
       <c r="X29" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2776,18 +2866,21 @@
         <v>0.03</v>
       </c>
       <c r="X30" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+        <v>0.03</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="n">
         <v>0.005</v>
@@ -2850,18 +2943,21 @@
         <v>0.03</v>
       </c>
       <c r="X31" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+        <v>0.03</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2891,10 +2987,10 @@
         <v>0.03</v>
       </c>
       <c r="N32" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="O32" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="P32" t="n">
         <v>0.05</v>
@@ -2918,21 +3014,24 @@
         <v>0.09</v>
       </c>
       <c r="W32" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="X32" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+        <v>0.11</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2992,18 +3091,21 @@
         <v>0.03</v>
       </c>
       <c r="X33" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+        <v>0.06</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3065,22 +3167,25 @@
       <c r="X34" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G35" t="n">
         <v>0.03</v>
@@ -3113,10 +3218,10 @@
         <v>0.09</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="R35" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="S35" t="n">
         <v>0.22</v>
@@ -3131,21 +3236,24 @@
         <v>0.13</v>
       </c>
       <c r="W35" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="X35" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+        <v>0.13</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3202,21 +3310,24 @@
         <v>0.06</v>
       </c>
       <c r="W36" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y36" t="n">
         <v>0.05</v>
       </c>
-      <c r="X36" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3273,24 +3384,27 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="X37" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <v>0.11</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="F38" t="n">
         <v>0.015</v>
@@ -3320,7 +3434,7 @@
         <v>0.02</v>
       </c>
       <c r="O38" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="P38" t="n">
         <v>0.06</v>
@@ -3329,7 +3443,7 @@
         <v>0.11</v>
       </c>
       <c r="R38" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="S38" t="n">
         <v>0.14</v>
@@ -3344,21 +3458,24 @@
         <v>0.06</v>
       </c>
       <c r="W38" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="X38" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+        <v>0.1</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3420,16 +3537,19 @@
       <c r="X39" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Y39" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E40" t="n">
         <v>0.01</v>
@@ -3491,16 +3611,19 @@
       <c r="X40" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Y40" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41" t="n">
         <v>0.005</v>
@@ -3515,7 +3638,7 @@
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J41" t="n">
         <v>0.05</v>
@@ -3533,16 +3656,16 @@
         <v>0.04</v>
       </c>
       <c r="O41" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="P41" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="Q41" t="n">
         <v>0.1</v>
       </c>
       <c r="R41" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="S41" t="n">
         <v>0.1</v>
@@ -3557,21 +3680,24 @@
         <v>0.09</v>
       </c>
       <c r="W41" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="X41" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+        <v>0.1</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3628,21 +3754,24 @@
         <v>0.09</v>
       </c>
       <c r="W42" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="X42" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+        <v>0.19</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E43" t="n">
         <v>0.01</v>
@@ -3702,24 +3831,27 @@
         <v>0.08</v>
       </c>
       <c r="X43" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+        <v>0.18</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="F44" t="n">
         <v>0.01</v>
@@ -3746,7 +3878,7 @@
         <v>0.04</v>
       </c>
       <c r="N44" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O44" t="n">
         <v>0.05</v>
@@ -3758,7 +3890,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="R44" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S44" t="n">
         <v>0.13</v>
@@ -3773,95 +3905,101 @@
         <v>0.04</v>
       </c>
       <c r="W44" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="X44" t="n">
         <v>0.09</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Y44" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y45" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="46" spans="1:25">
+      <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="C45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -3924,18 +4062,21 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X46" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+        <v>0.1</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -3971,13 +4112,13 @@
         <v>0.015</v>
       </c>
       <c r="O47" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="P47" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R47" t="n">
         <v>0.14</v>
@@ -3995,21 +4136,24 @@
         <v>0.03</v>
       </c>
       <c r="W47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="X47" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+        <v>0.09</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -4072,18 +4216,21 @@
         <v>0.03</v>
       </c>
       <c r="X48" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
+        <v>0.02</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -4146,18 +4293,21 @@
         <v>0.12</v>
       </c>
       <c r="X49" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+        <v>0.12</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -4181,13 +4331,13 @@
         <v>0.02</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L50" t="n">
         <v>0.03</v>
       </c>
       <c r="M50" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="N50" t="n">
         <v>0.05</v>
@@ -4196,10 +4346,10 @@
         <v>0.05</v>
       </c>
       <c r="P50" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R50" t="n">
         <v>0.12</v>
@@ -4217,21 +4367,24 @@
         <v>0.15</v>
       </c>
       <c r="W50" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="X50" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="Y50" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -4296,16 +4449,19 @@
       <c r="X51" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="Y51" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -4370,25 +4526,28 @@
       <c r="X52" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="Y52" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E53" t="n">
         <v>0.005</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="G53" t="n">
         <v>0.03</v>
@@ -4406,13 +4565,13 @@
         <v>0.03</v>
       </c>
       <c r="L53" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="M53" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="N53" t="n">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
       <c r="O53" t="n">
         <v>0.02</v>
@@ -4424,7 +4583,7 @@
         <v>0.09</v>
       </c>
       <c r="R53" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="S53" t="n">
         <v>0.11</v>
@@ -4439,21 +4598,24 @@
         <v>0.05</v>
       </c>
       <c r="W53" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X53" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
+        <v>0.08</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -4516,18 +4678,21 @@
         <v>0.12</v>
       </c>
       <c r="X54" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
+        <v>0.15</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -4587,66 +4752,69 @@
         <v>0.09</v>
       </c>
       <c r="W55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X55" t="n">
         <v>0.06</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Y55" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q56" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:24">
-      <c r="A56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.06</v>
-      </c>
       <c r="R56" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="S56" t="n">
         <v>0.17</v>
@@ -4661,21 +4829,24 @@
         <v>0.14</v>
       </c>
       <c r="W56" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="X56" t="n">
         <v>0.15</v>
       </c>
-      <c r="X56" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="Y56" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -4738,18 +4909,21 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X57" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Y57" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -4812,12 +4986,15 @@
         <v>0.09</v>
       </c>
       <c r="X58" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
+        <v>0.11</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4831,7 +5008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4839,7 +5016,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4909,13 +5086,16 @@
       <c r="W1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -4980,13 +5160,16 @@
       <c r="W2" t="n">
         <v>2131</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -5051,13 +5234,16 @@
       <c r="W3" t="n">
         <v>501</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -5122,13 +5308,16 @@
       <c r="W4" t="n">
         <v>781</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -5193,13 +5382,16 @@
       <c r="W5" t="n">
         <v>849</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
         <v>1514</v>
@@ -5264,13 +5456,16 @@
       <c r="W6" t="n">
         <v>1040</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
         <v>1587</v>
@@ -5335,13 +5530,16 @@
       <c r="W7" t="n">
         <v>1091</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
         <v>1474</v>
@@ -5406,13 +5604,16 @@
       <c r="W8" t="n">
         <v>982</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
         <v>307</v>
@@ -5477,13 +5678,16 @@
       <c r="W9" t="n">
         <v>170</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
         <v>918</v>
@@ -5548,13 +5752,16 @@
       <c r="W10" t="n">
         <v>652</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
         <v>402</v>
@@ -5619,13 +5826,16 @@
       <c r="W11" t="n">
         <v>327</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s"/>
       <c r="D12" t="n">
@@ -5688,13 +5898,16 @@
       <c r="W12" t="n">
         <v>769</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="n">
@@ -5757,13 +5970,16 @@
       <c r="W13" t="n">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s"/>
       <c r="D14" t="n">
@@ -5826,13 +6042,16 @@
       <c r="W14" t="n">
         <v>154</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s"/>
       <c r="D15" t="n">
@@ -5895,13 +6114,16 @@
       <c r="W15" t="n">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="n">
         <v>553</v>
@@ -5966,13 +6188,16 @@
       <c r="W16" t="n">
         <v>401</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
         <v>146</v>
@@ -6037,13 +6262,16 @@
       <c r="W17" t="n">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
         <v>515</v>
@@ -6108,13 +6336,16 @@
       <c r="W18" t="n">
         <v>346</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
         <v>281</v>
@@ -6179,13 +6410,16 @@
       <c r="W19" t="n">
         <v>191</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
         <v>157</v>
@@ -6250,10 +6484,13 @@
       <c r="W20" t="n">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -6277,6 +6514,7 @@
       <c r="U21" t="s"/>
       <c r="V21" t="s"/>
       <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_07_testovani.xlsx
+++ b/ZBP_07_testovani.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>trideni</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>16. 2. 2021</t>
+  </si>
+  <si>
+    <t>2. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -176,10 +179,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,7 +565,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,16 +641,19 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -715,16 +721,19 @@
       <c r="Y2" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -792,16 +801,19 @@
       <c r="Y3" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -869,16 +881,19 @@
       <c r="Y4" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>0.005</v>
@@ -946,16 +961,19 @@
       <c r="Y5" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1023,16 +1041,19 @@
       <c r="Y6" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>0.005</v>
@@ -1100,16 +1121,19 @@
       <c r="Y7" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1177,16 +1201,19 @@
       <c r="Y8" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1254,16 +1281,19 @@
       <c r="Y9" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1331,16 +1361,19 @@
       <c r="Y10" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1408,93 +1441,99 @@
       <c r="Y11" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1562,16 +1601,19 @@
       <c r="Y13" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1639,16 +1681,19 @@
       <c r="Y14" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1716,16 +1761,19 @@
       <c r="Y15" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1793,16 +1841,19 @@
       <c r="Y16" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1870,16 +1921,19 @@
       <c r="Y17" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1947,16 +2001,19 @@
       <c r="Y18" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2024,16 +2081,19 @@
       <c r="Y19" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2101,16 +2161,19 @@
       <c r="Y20" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2178,16 +2241,19 @@
       <c r="Y21" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2255,16 +2321,19 @@
       <c r="Y22" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,16 +2401,19 @@
       <c r="Y23" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,16 +2481,19 @@
       <c r="Y24" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2486,16 +2561,19 @@
       <c r="Y25" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2563,16 +2641,19 @@
       <c r="Y26" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2640,16 +2721,19 @@
       <c r="Y27" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2717,16 +2801,19 @@
       <c r="Y28" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
         <v>0.005</v>
@@ -2794,16 +2881,19 @@
       <c r="Y29" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2871,16 +2961,19 @@
       <c r="Y30" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
         <v>0.005</v>
@@ -2948,16 +3041,19 @@
       <c r="Y31" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3022,16 +3118,19 @@
       <c r="Y32" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3096,16 +3195,19 @@
       <c r="Y33" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3170,16 +3272,19 @@
       <c r="Y34" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3244,16 +3349,19 @@
       <c r="Y35" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3318,16 +3426,19 @@
       <c r="Y36" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3392,16 +3503,19 @@
       <c r="Y37" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E38" t="n">
         <v>0.005</v>
@@ -3466,16 +3580,19 @@
       <c r="Y38" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3540,16 +3657,19 @@
       <c r="Y39" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E40" t="n">
         <v>0.01</v>
@@ -3614,16 +3734,19 @@
       <c r="Y40" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E41" t="n">
         <v>0.005</v>
@@ -3688,16 +3811,19 @@
       <c r="Y41" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3762,16 +3888,19 @@
       <c r="Y42" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E43" t="n">
         <v>0.01</v>
@@ -3836,16 +3965,19 @@
       <c r="Y43" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3913,16 +4045,19 @@
       <c r="Y44" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -3990,16 +4125,19 @@
       <c r="Y45" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4067,16 +4205,19 @@
       <c r="Y46" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4144,16 +4285,19 @@
       <c r="Y47" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -4221,16 +4365,19 @@
       <c r="Y48" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -4298,16 +4445,19 @@
       <c r="Y49" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -4375,16 +4525,19 @@
       <c r="Y50" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -4452,16 +4605,19 @@
       <c r="Y51" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -4529,16 +4685,19 @@
       <c r="Y52" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" t="n">
         <v>0.005</v>
@@ -4606,16 +4765,19 @@
       <c r="Y53" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -4683,16 +4845,19 @@
       <c r="Y54" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -4760,16 +4925,19 @@
       <c r="Y55" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -4837,16 +5005,19 @@
       <c r="Y56" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -4914,16 +5085,19 @@
       <c r="Y57" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -4991,10 +5165,13 @@
       <c r="Y58" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5008,7 +5185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5016,7 +5193,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5089,13 +5266,16 @@
       <c r="X1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -5163,13 +5343,16 @@
       <c r="X2" t="n">
         <v>2120</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -5237,13 +5420,16 @@
       <c r="X3" t="n">
         <v>511</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -5311,13 +5497,16 @@
       <c r="X4" t="n">
         <v>774</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -5385,13 +5574,16 @@
       <c r="X5" t="n">
         <v>835</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
         <v>1514</v>
@@ -5459,13 +5651,16 @@
       <c r="X6" t="n">
         <v>1025</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
         <v>1587</v>
@@ -5533,13 +5728,16 @@
       <c r="X7" t="n">
         <v>1095</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
         <v>1474</v>
@@ -5607,13 +5805,16 @@
       <c r="X8" t="n">
         <v>982</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
         <v>307</v>
@@ -5681,13 +5882,16 @@
       <c r="X9" t="n">
         <v>171</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
         <v>918</v>
@@ -5755,13 +5959,16 @@
       <c r="X10" t="n">
         <v>640</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
         <v>402</v>
@@ -5829,13 +6036,16 @@
       <c r="X11" t="n">
         <v>327</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s"/>
       <c r="D12" t="n">
@@ -5901,13 +6111,16 @@
       <c r="X12" t="n">
         <v>737</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="n">
@@ -5973,13 +6186,16 @@
       <c r="X13" t="n">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s"/>
       <c r="D14" t="n">
@@ -6045,13 +6261,16 @@
       <c r="X14" t="n">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s"/>
       <c r="D15" t="n">
@@ -6117,13 +6336,16 @@
       <c r="X15" t="n">
         <v>152</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="n">
         <v>553</v>
@@ -6191,13 +6413,16 @@
       <c r="X16" t="n">
         <v>382</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
         <v>146</v>
@@ -6265,13 +6490,16 @@
       <c r="X17" t="n">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="n">
         <v>515</v>
@@ -6339,13 +6567,16 @@
       <c r="X18" t="n">
         <v>338</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
         <v>281</v>
@@ -6413,13 +6644,16 @@
       <c r="X19" t="n">
         <v>183</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n">
         <v>157</v>
@@ -6487,10 +6721,13 @@
       <c r="X20" t="n">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -6515,6 +6752,7 @@
       <c r="V21" t="s"/>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_07_testovani.xlsx
+++ b/ZBP_07_testovani.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>trideni</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>2. 3. 2021</t>
+  </si>
+  <si>
+    <t>16. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -179,10 +182,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,16 +647,19 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -724,16 +730,19 @@
       <c r="Z2" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -804,16 +813,19 @@
       <c r="Z3" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -884,16 +896,19 @@
       <c r="Z4" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.005</v>
@@ -964,16 +979,19 @@
       <c r="Z5" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1044,16 +1062,19 @@
       <c r="Z6" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0.005</v>
@@ -1124,16 +1145,19 @@
       <c r="Z7" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1204,16 +1228,19 @@
       <c r="Z8" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1284,16 +1311,19 @@
       <c r="Z9" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1364,16 +1394,19 @@
       <c r="Z10" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1444,96 +1477,102 @@
       <c r="Z11" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1604,16 +1643,19 @@
       <c r="Z13" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1684,16 +1726,19 @@
       <c r="Z14" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1764,16 +1809,19 @@
       <c r="Z15" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1844,16 +1892,19 @@
       <c r="Z16" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1924,16 +1975,19 @@
       <c r="Z17" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2004,16 +2058,19 @@
       <c r="Z18" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2084,16 +2141,19 @@
       <c r="Z19" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2164,16 +2224,19 @@
       <c r="Z20" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2244,16 +2307,19 @@
       <c r="Z21" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2324,16 +2390,19 @@
       <c r="Z22" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2404,16 +2473,19 @@
       <c r="Z23" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2484,16 +2556,19 @@
       <c r="Z24" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2564,16 +2639,19 @@
       <c r="Z25" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2644,16 +2722,19 @@
       <c r="Z26" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2724,16 +2805,19 @@
       <c r="Z27" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2804,16 +2888,19 @@
       <c r="Z28" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
         <v>0.005</v>
@@ -2884,16 +2971,19 @@
       <c r="Z29" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2964,16 +3054,19 @@
       <c r="Z30" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
         <v>0.005</v>
@@ -3044,16 +3137,19 @@
       <c r="Z31" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3121,16 +3217,19 @@
       <c r="Z32" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3198,16 +3297,19 @@
       <c r="Z33" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3275,16 +3377,19 @@
       <c r="Z34" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3352,16 +3457,19 @@
       <c r="Z35" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3429,16 +3537,19 @@
       <c r="Z36" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3506,16 +3617,19 @@
       <c r="Z37" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E38" t="n">
         <v>0.005</v>
@@ -3583,16 +3697,19 @@
       <c r="Z38" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3660,16 +3777,19 @@
       <c r="Z39" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E40" t="n">
         <v>0.01</v>
@@ -3737,16 +3857,19 @@
       <c r="Z40" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E41" t="n">
         <v>0.005</v>
@@ -3814,16 +3937,19 @@
       <c r="Z41" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3891,16 +4017,19 @@
       <c r="Z42" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E43" t="n">
         <v>0.01</v>
@@ -3968,16 +4097,19 @@
       <c r="Z43" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4048,16 +4180,19 @@
       <c r="Z44" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4128,16 +4263,19 @@
       <c r="Z45" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4208,16 +4346,19 @@
       <c r="Z46" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4288,16 +4429,19 @@
       <c r="Z47" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -4368,16 +4512,19 @@
       <c r="Z48" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -4448,16 +4595,19 @@
       <c r="Z49" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -4528,16 +4678,19 @@
       <c r="Z50" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -4608,16 +4761,19 @@
       <c r="Z51" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -4688,16 +4844,19 @@
       <c r="Z52" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AA52" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" t="n">
         <v>0.005</v>
@@ -4768,16 +4927,19 @@
       <c r="Z53" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -4848,16 +5010,19 @@
       <c r="Z54" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AA54" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -4928,16 +5093,19 @@
       <c r="Z55" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -5008,16 +5176,19 @@
       <c r="Z56" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AA56" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -5088,16 +5259,19 @@
       <c r="Z57" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -5168,10 +5342,13 @@
       <c r="Z58" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AA58" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5185,7 +5362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5193,7 +5370,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5269,13 +5446,16 @@
       <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -5346,13 +5526,16 @@
       <c r="Y2" t="n">
         <v>2130</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -5423,13 +5606,16 @@
       <c r="Y3" t="n">
         <v>512</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -5500,13 +5686,16 @@
       <c r="Y4" t="n">
         <v>776</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -5577,13 +5766,16 @@
       <c r="Y5" t="n">
         <v>842</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>1514</v>
@@ -5654,13 +5846,16 @@
       <c r="Y6" t="n">
         <v>1042</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
         <v>1587</v>
@@ -5731,13 +5926,16 @@
       <c r="Y7" t="n">
         <v>1088</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
         <v>1474</v>
@@ -5808,13 +6006,16 @@
       <c r="Y8" t="n">
         <v>989</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
         <v>307</v>
@@ -5885,13 +6086,16 @@
       <c r="Y9" t="n">
         <v>167</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
         <v>918</v>
@@ -5962,13 +6166,16 @@
       <c r="Y10" t="n">
         <v>648</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
         <v>402</v>
@@ -6039,13 +6246,16 @@
       <c r="Y11" t="n">
         <v>326</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s"/>
       <c r="D12" t="n">
@@ -6114,13 +6324,16 @@
       <c r="Y12" t="n">
         <v>763</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="n">
@@ -6189,13 +6402,16 @@
       <c r="Y13" t="n">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s"/>
       <c r="D14" t="n">
@@ -6264,13 +6480,16 @@
       <c r="Y14" t="n">
         <v>161</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s"/>
       <c r="D15" t="n">
@@ -6339,13 +6558,16 @@
       <c r="Y15" t="n">
         <v>138</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
         <v>553</v>
@@ -6416,13 +6638,16 @@
       <c r="Y16" t="n">
         <v>384</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="n">
         <v>146</v>
@@ -6493,13 +6718,16 @@
       <c r="Y17" t="n">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="n">
         <v>515</v>
@@ -6570,13 +6798,16 @@
       <c r="Y18" t="n">
         <v>333</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="n">
         <v>281</v>
@@ -6647,13 +6878,16 @@
       <c r="Y19" t="n">
         <v>179</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="n">
         <v>157</v>
@@ -6724,10 +6958,13 @@
       <c r="Y20" t="n">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -6753,6 +6990,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s"/>
+      <c r="Z21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_07_testovani.xlsx
+++ b/ZBP_07_testovani.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>trideni</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>16. 3. 2021</t>
+  </si>
+  <si>
+    <t>30. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -182,10 +185,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +571,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,16 +653,19 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -733,16 +739,19 @@
       <c r="AA2" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -816,16 +825,19 @@
       <c r="AA3" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -899,16 +911,19 @@
       <c r="AA4" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
         <v>0.005</v>
@@ -982,16 +997,19 @@
       <c r="AA5" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1065,16 +1083,19 @@
       <c r="AA6" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0.005</v>
@@ -1148,16 +1169,19 @@
       <c r="AA7" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1231,16 +1255,19 @@
       <c r="AA8" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1314,16 +1341,19 @@
       <c r="AA9" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1397,16 +1427,19 @@
       <c r="AA10" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1480,16 +1513,19 @@
       <c r="AA11" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1563,16 +1599,19 @@
       <c r="AA12" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1646,16 +1685,19 @@
       <c r="AA13" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1729,16 +1771,19 @@
       <c r="AA14" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1812,16 +1857,19 @@
       <c r="AA15" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1895,16 +1943,19 @@
       <c r="AA16" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1978,16 +2029,19 @@
       <c r="AA17" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2061,16 +2115,19 @@
       <c r="AA18" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2144,16 +2201,19 @@
       <c r="AA19" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2227,16 +2287,19 @@
       <c r="AA20" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2310,16 +2373,19 @@
       <c r="AA21" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2393,16 +2459,19 @@
       <c r="AA22" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2476,16 +2545,19 @@
       <c r="AA23" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2559,16 +2631,19 @@
       <c r="AA24" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2642,16 +2717,19 @@
       <c r="AA25" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2725,16 +2803,19 @@
       <c r="AA26" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2808,16 +2889,19 @@
       <c r="AA27" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2891,16 +2975,19 @@
       <c r="AA28" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
         <v>0.005</v>
@@ -2974,16 +3061,19 @@
       <c r="AA29" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3057,16 +3147,19 @@
       <c r="AA30" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
         <v>0.005</v>
@@ -3140,16 +3233,19 @@
       <c r="AA31" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3220,16 +3316,19 @@
       <c r="AA32" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3300,16 +3399,19 @@
       <c r="AA33" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3380,16 +3482,19 @@
       <c r="AA34" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3460,16 +3565,19 @@
       <c r="AA35" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3540,16 +3648,19 @@
       <c r="AA36" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3620,16 +3731,19 @@
       <c r="AA37" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E38" t="n">
         <v>0.005</v>
@@ -3700,16 +3814,19 @@
       <c r="AA38" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3780,16 +3897,19 @@
       <c r="AA39" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E40" t="n">
         <v>0.01</v>
@@ -3860,16 +3980,19 @@
       <c r="AA40" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E41" t="n">
         <v>0.005</v>
@@ -3940,16 +4063,19 @@
       <c r="AA41" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -4020,16 +4146,19 @@
       <c r="AA42" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E43" t="n">
         <v>0.01</v>
@@ -4100,16 +4229,19 @@
       <c r="AA43" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4183,16 +4315,19 @@
       <c r="AA44" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4266,16 +4401,19 @@
       <c r="AA45" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4349,16 +4487,19 @@
       <c r="AA46" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AB46" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4432,16 +4573,19 @@
       <c r="AA47" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AB47" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -4515,16 +4659,19 @@
       <c r="AA48" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AB48" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -4598,16 +4745,19 @@
       <c r="AA49" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AB49" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -4681,16 +4831,19 @@
       <c r="AA50" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AB50" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -4764,16 +4917,19 @@
       <c r="AA51" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AB51" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -4847,16 +5003,19 @@
       <c r="AA52" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AB52" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
         <v>0.005</v>
@@ -4930,16 +5089,19 @@
       <c r="AA53" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AB53" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -5013,16 +5175,19 @@
       <c r="AA54" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AB54" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -5096,16 +5261,19 @@
       <c r="AA55" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AB55" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -5179,16 +5347,19 @@
       <c r="AA56" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AB56" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -5262,16 +5433,19 @@
       <c r="AA57" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AB57" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -5345,10 +5519,13 @@
       <c r="AA58" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AB58" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5362,7 +5539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5370,7 +5547,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5449,13 +5626,16 @@
       <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -5529,13 +5709,16 @@
       <c r="Z2" t="n">
         <v>2101</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -5609,13 +5792,16 @@
       <c r="Z3" t="n">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -5689,13 +5875,16 @@
       <c r="Z4" t="n">
         <v>776</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -5769,13 +5958,16 @@
       <c r="Z5" t="n">
         <v>825</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
         <v>1514</v>
@@ -5849,13 +6041,16 @@
       <c r="Z6" t="n">
         <v>1015</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>1587</v>
@@ -5929,13 +6124,16 @@
       <c r="Z7" t="n">
         <v>1086</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
         <v>1474</v>
@@ -6009,13 +6207,16 @@
       <c r="Z8" t="n">
         <v>988</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
         <v>307</v>
@@ -6089,13 +6290,16 @@
       <c r="Z9" t="n">
         <v>171</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
         <v>918</v>
@@ -6169,13 +6373,16 @@
       <c r="Z10" t="n">
         <v>640</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
         <v>402</v>
@@ -6249,13 +6456,16 @@
       <c r="Z11" t="n">
         <v>302</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s"/>
       <c r="D12" t="n">
@@ -6327,13 +6537,16 @@
       <c r="Z12" t="n">
         <v>682</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="n">
@@ -6405,13 +6618,16 @@
       <c r="Z13" t="n">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s"/>
       <c r="D14" t="n">
@@ -6483,13 +6699,16 @@
       <c r="Z14" t="n">
         <v>205</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s"/>
       <c r="D15" t="n">
@@ -6561,13 +6780,16 @@
       <c r="Z15" t="n">
         <v>168</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
         <v>553</v>
@@ -6641,13 +6863,16 @@
       <c r="Z16" t="n">
         <v>386</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="n">
         <v>146</v>
@@ -6721,13 +6946,16 @@
       <c r="Z17" t="n">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="n">
         <v>515</v>
@@ -6801,13 +7029,16 @@
       <c r="Z18" t="n">
         <v>328</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
         <v>281</v>
@@ -6881,13 +7112,16 @@
       <c r="Z19" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="n">
         <v>157</v>
@@ -6961,10 +7195,13 @@
       <c r="Z20" t="n">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -6991,6 +7228,7 @@
       <c r="X21" t="s"/>
       <c r="Y21" t="s"/>
       <c r="Z21" t="s"/>
+      <c r="AA21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_07_testovani.xlsx
+++ b/ZBP_07_testovani.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>trideni</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>30. 3. 2021</t>
+  </si>
+  <si>
+    <t>13. 4. 2021</t>
+  </si>
+  <si>
+    <t>4. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -185,10 +191,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB59"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +577,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,16 +662,22 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -742,16 +754,22 @@
       <c r="AB2" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AC2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -828,16 +846,22 @@
       <c r="AB3" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -914,16 +938,22 @@
       <c r="AB4" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>0.005</v>
@@ -1000,16 +1030,22 @@
       <c r="AB5" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1086,16 +1122,22 @@
       <c r="AB6" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0.005</v>
@@ -1172,16 +1214,22 @@
       <c r="AB7" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1258,16 +1306,22 @@
       <c r="AB8" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1344,16 +1398,22 @@
       <c r="AB9" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1430,16 +1490,22 @@
       <c r="AB10" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1516,16 +1582,22 @@
       <c r="AB11" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1602,16 +1674,22 @@
       <c r="AB12" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1688,16 +1766,22 @@
       <c r="AB13" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1774,16 +1858,22 @@
       <c r="AB14" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1860,16 +1950,22 @@
       <c r="AB15" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1946,16 +2042,22 @@
       <c r="AB16" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2032,16 +2134,22 @@
       <c r="AB17" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2118,16 +2226,22 @@
       <c r="AB18" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2204,16 +2318,22 @@
       <c r="AB19" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2290,16 +2410,22 @@
       <c r="AB20" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2376,16 +2502,22 @@
       <c r="AB21" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2462,16 +2594,22 @@
       <c r="AB22" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2548,16 +2686,22 @@
       <c r="AB23" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2634,16 +2778,22 @@
       <c r="AB24" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2720,16 +2870,22 @@
       <c r="AB25" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2806,16 +2962,22 @@
       <c r="AB26" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2892,16 +3054,22 @@
       <c r="AB27" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2978,16 +3146,22 @@
       <c r="AB28" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
         <v>0.005</v>
@@ -3064,16 +3238,22 @@
       <c r="AB29" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3150,16 +3330,22 @@
       <c r="AB30" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AC30" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
         <v>0.005</v>
@@ -3236,16 +3422,22 @@
       <c r="AB31" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AC31" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3319,16 +3511,22 @@
       <c r="AB32" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3402,16 +3600,22 @@
       <c r="AB33" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3485,16 +3689,22 @@
       <c r="AB34" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AC34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3568,16 +3778,22 @@
       <c r="AB35" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AC35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3651,16 +3867,22 @@
       <c r="AB36" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AC36" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3734,16 +3956,22 @@
       <c r="AB37" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E38" t="n">
         <v>0.005</v>
@@ -3817,16 +4045,22 @@
       <c r="AB38" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3900,16 +4134,22 @@
       <c r="AB39" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AC39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E40" t="n">
         <v>0.01</v>
@@ -3983,16 +4223,22 @@
       <c r="AB40" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E41" t="n">
         <v>0.005</v>
@@ -4066,16 +4312,22 @@
       <c r="AB41" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -4149,16 +4401,22 @@
       <c r="AB42" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E43" t="n">
         <v>0.01</v>
@@ -4232,16 +4490,22 @@
       <c r="AB43" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4318,16 +4582,22 @@
       <c r="AB44" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4404,16 +4674,22 @@
       <c r="AB45" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4490,16 +4766,22 @@
       <c r="AB46" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4576,16 +4858,22 @@
       <c r="AB47" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -4662,16 +4950,22 @@
       <c r="AB48" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AC48" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -4748,16 +5042,22 @@
       <c r="AB49" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AC49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -4834,16 +5134,22 @@
       <c r="AB50" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -4920,16 +5226,22 @@
       <c r="AB51" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="AC51" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -5006,16 +5318,22 @@
       <c r="AB52" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="53" spans="1:28">
+      <c r="AC52" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
         <v>0.005</v>
@@ -5092,16 +5410,22 @@
       <c r="AB53" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AC53" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -5178,16 +5502,22 @@
       <c r="AB54" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="AC54" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -5264,16 +5594,22 @@
       <c r="AB55" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="AC55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -5350,16 +5686,22 @@
       <c r="AB56" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AC56" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -5436,16 +5778,22 @@
       <c r="AB57" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="AC57" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -5522,10 +5870,16 @@
       <c r="AB58" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="AC58" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5539,7 +5893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5547,7 +5901,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5629,13 +5983,19 @@
       <c r="AA1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -5712,13 +6072,19 @@
       <c r="AA2" t="n">
         <v>2061</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>2059</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -5795,13 +6161,19 @@
       <c r="AA3" t="n">
         <v>488</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>491</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -5878,13 +6250,19 @@
       <c r="AA4" t="n">
         <v>758</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>754</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -5961,13 +6339,19 @@
       <c r="AA5" t="n">
         <v>815</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>814</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>1514</v>
@@ -6044,13 +6428,19 @@
       <c r="AA6" t="n">
         <v>1007</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>997</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
         <v>1587</v>
@@ -6127,13 +6517,19 @@
       <c r="AA7" t="n">
         <v>1054</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>1062</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
         <v>1474</v>
@@ -6210,13 +6606,19 @@
       <c r="AA8" t="n">
         <v>966</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>955</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
         <v>307</v>
@@ -6293,13 +6695,19 @@
       <c r="AA9" t="n">
         <v>176</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>171</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n">
         <v>918</v>
@@ -6376,13 +6784,19 @@
       <c r="AA10" t="n">
         <v>629</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>633</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
         <v>402</v>
@@ -6459,13 +6873,19 @@
       <c r="AA11" t="n">
         <v>290</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s"/>
       <c r="D12" t="n">
@@ -6540,13 +6960,19 @@
       <c r="AA12" t="n">
         <v>698</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>711</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="n">
@@ -6621,13 +7047,19 @@
       <c r="AA13" t="n">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>89</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s"/>
       <c r="D14" t="n">
@@ -6702,13 +7134,19 @@
       <c r="AA14" t="n">
         <v>179</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>178</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s"/>
       <c r="D15" t="n">
@@ -6783,13 +7221,19 @@
       <c r="AA15" t="n">
         <v>158</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>148</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" t="n">
         <v>553</v>
@@ -6866,13 +7310,19 @@
       <c r="AA16" t="n">
         <v>373</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>378</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" t="n">
         <v>146</v>
@@ -6949,13 +7399,19 @@
       <c r="AA17" t="n">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>102</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="n">
         <v>515</v>
@@ -7032,13 +7488,19 @@
       <c r="AA18" t="n">
         <v>330</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>328</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" t="n">
         <v>281</v>
@@ -7115,13 +7577,19 @@
       <c r="AA19" t="n">
         <v>183</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>172</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" t="n">
         <v>157</v>
@@ -7198,10 +7666,16 @@
       <c r="AA20" t="n">
         <v>106</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>112</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -7229,6 +7703,8 @@
       <c r="Y21" t="s"/>
       <c r="Z21" t="s"/>
       <c r="AA21" t="s"/>
+      <c r="AB21" t="s"/>
+      <c r="AC21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_07_testovani.xlsx
+++ b/ZBP_07_testovani.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>trideni</t>
   </si>
@@ -107,6 +107,9 @@
     <t>4. 5. 2021</t>
   </si>
   <si>
+    <t>25. 5. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -191,10 +194,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD59"/>
+  <dimension ref="A1:AE59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +580,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,16 +671,19 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -760,16 +766,19 @@
       <c r="AD2" t="n">
         <v>0.05</v>
       </c>
+      <c r="AE2" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -852,16 +861,19 @@
       <c r="AD3" t="n">
         <v>0.06</v>
       </c>
+      <c r="AE3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -944,16 +956,19 @@
       <c r="AD4" t="n">
         <v>0.37</v>
       </c>
+      <c r="AE4" t="n">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
         <v>0.005</v>
@@ -1036,16 +1051,19 @@
       <c r="AD5" t="n">
         <v>0.03</v>
       </c>
+      <c r="AE5" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1128,16 +1146,19 @@
       <c r="AD6" t="n">
         <v>0.08</v>
       </c>
+      <c r="AE6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" t="n">
         <v>0.005</v>
@@ -1218,18 +1239,21 @@
         <v>0.33</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.46</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1312,16 +1336,19 @@
       <c r="AD8" t="n">
         <v>0.04</v>
       </c>
+      <c r="AE8" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1404,16 +1431,19 @@
       <c r="AD9" t="n">
         <v>0.08</v>
       </c>
+      <c r="AE9" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1496,16 +1526,19 @@
       <c r="AD10" t="n">
         <v>0.53</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1588,16 +1621,19 @@
       <c r="AD11" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AE11" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1680,16 +1716,19 @@
       <c r="AD12" t="n">
         <v>0.04</v>
       </c>
+      <c r="AE12" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1772,16 +1811,19 @@
       <c r="AD13" t="n">
         <v>0.21</v>
       </c>
+      <c r="AE13" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1864,16 +1906,19 @@
       <c r="AD14" t="n">
         <v>0.05</v>
       </c>
+      <c r="AE14" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1956,16 +2001,19 @@
       <c r="AD15" t="n">
         <v>0.08</v>
       </c>
+      <c r="AE15" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2048,16 +2096,19 @@
       <c r="AD16" t="n">
         <v>0.42</v>
       </c>
+      <c r="AE16" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2140,16 +2191,19 @@
       <c r="AD17" t="n">
         <v>0.05</v>
       </c>
+      <c r="AE17" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2232,16 +2286,19 @@
       <c r="AD18" t="n">
         <v>0.05</v>
       </c>
+      <c r="AE18" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2324,16 +2381,19 @@
       <c r="AD19" t="n">
         <v>0.32</v>
       </c>
+      <c r="AE19" t="n">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2416,16 +2476,19 @@
       <c r="AD20" t="n">
         <v>0.05</v>
       </c>
+      <c r="AE20" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2508,16 +2571,19 @@
       <c r="AD21" t="n">
         <v>0.09</v>
       </c>
+      <c r="AE21" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2600,16 +2666,19 @@
       <c r="AD22" t="n">
         <v>0.59</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2692,16 +2761,19 @@
       <c r="AD23" t="n">
         <v>0.09</v>
       </c>
+      <c r="AE23" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2784,16 +2856,19 @@
       <c r="AD24" t="n">
         <v>0.09</v>
       </c>
+      <c r="AE24" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2876,16 +2951,19 @@
       <c r="AD25" t="n">
         <v>0.25</v>
       </c>
+      <c r="AE25" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2968,16 +3046,19 @@
       <c r="AD26" t="n">
         <v>0.06</v>
       </c>
+      <c r="AE26" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3060,16 +3141,19 @@
       <c r="AD27" t="n">
         <v>0.02</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3152,16 +3236,19 @@
       <c r="AD28" t="n">
         <v>0.13</v>
       </c>
+      <c r="AE28" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" t="n">
         <v>0.005</v>
@@ -3244,16 +3331,19 @@
       <c r="AD29" t="n">
         <v>0.04</v>
       </c>
+      <c r="AE29" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3336,16 +3426,19 @@
       <c r="AD30" t="n">
         <v>0.06</v>
       </c>
+      <c r="AE30" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" t="n">
         <v>0.005</v>
@@ -3428,16 +3521,19 @@
       <c r="AD31" t="n">
         <v>0.24</v>
       </c>
+      <c r="AE31" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3517,16 +3613,19 @@
       <c r="AD32" t="n">
         <v>0.05</v>
       </c>
+      <c r="AE32" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3606,16 +3705,19 @@
       <c r="AD33" t="n">
         <v>0.1</v>
       </c>
+      <c r="AE33" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3695,16 +3797,19 @@
       <c r="AD34" t="n">
         <v>0.62</v>
       </c>
+      <c r="AE34" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3784,16 +3889,19 @@
       <c r="AD35" t="n">
         <v>0.05</v>
       </c>
+      <c r="AE35" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3873,16 +3981,19 @@
       <c r="AD36" t="n">
         <v>0.1</v>
       </c>
+      <c r="AE36" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3962,16 +4073,19 @@
       <c r="AD37" t="n">
         <v>0.59</v>
       </c>
+      <c r="AE37" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E38" t="n">
         <v>0.005</v>
@@ -4051,16 +4165,19 @@
       <c r="AD38" t="n">
         <v>0.03</v>
       </c>
+      <c r="AE38" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -4140,16 +4257,19 @@
       <c r="AD39" t="n">
         <v>0.015</v>
       </c>
+      <c r="AE39" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E40" t="n">
         <v>0.01</v>
@@ -4229,16 +4349,19 @@
       <c r="AD40" t="n">
         <v>0.27</v>
       </c>
+      <c r="AE40" t="n">
+        <v>0.28</v>
+      </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41" t="n">
         <v>0.005</v>
@@ -4318,16 +4441,19 @@
       <c r="AD41" t="n">
         <v>0.14</v>
       </c>
+      <c r="AE41" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -4407,16 +4533,19 @@
       <c r="AD42" t="n">
         <v>0.1</v>
       </c>
+      <c r="AE42" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E43" t="n">
         <v>0.01</v>
@@ -4496,16 +4625,19 @@
       <c r="AD43" t="n">
         <v>0.25</v>
       </c>
+      <c r="AE43" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4588,16 +4720,19 @@
       <c r="AD44" t="n">
         <v>0.03</v>
       </c>
+      <c r="AE44" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4680,16 +4815,19 @@
       <c r="AD45" t="n">
         <v>0.11</v>
       </c>
+      <c r="AE45" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4772,16 +4910,19 @@
       <c r="AD46" t="n">
         <v>0.46</v>
       </c>
+      <c r="AE46" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4864,16 +5005,19 @@
       <c r="AD47" t="n">
         <v>0.05</v>
       </c>
+      <c r="AE47" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -4956,16 +5100,19 @@
       <c r="AD48" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AE48" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -5048,16 +5195,19 @@
       <c r="AD49" t="n">
         <v>0.37</v>
       </c>
+      <c r="AE49" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -5140,16 +5290,19 @@
       <c r="AD50" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AE50" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -5232,16 +5385,19 @@
       <c r="AD51" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AE51" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -5322,18 +5478,21 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" t="n">
         <v>0.005</v>
@@ -5416,16 +5575,19 @@
       <c r="AD53" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AE53" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -5508,16 +5670,19 @@
       <c r="AD54" t="n">
         <v>0.11</v>
       </c>
+      <c r="AE54" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -5600,16 +5765,19 @@
       <c r="AD55" t="n">
         <v>0.51</v>
       </c>
+      <c r="AE55" t="n">
+        <v>0.57</v>
+      </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -5692,16 +5860,19 @@
       <c r="AD56" t="n">
         <v>0.04</v>
       </c>
+      <c r="AE56" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -5784,16 +5955,19 @@
       <c r="AD57" t="n">
         <v>0.12</v>
       </c>
+      <c r="AE57" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -5874,12 +6048,15 @@
         <v>0.38</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.43</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5893,7 +6070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5901,7 +6078,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5989,13 +6166,16 @@
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -6076,15 +6256,18 @@
         <v>2059</v>
       </c>
       <c r="AC2" t="n">
-        <v>2032</v>
+        <v>2029</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1975</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -6165,15 +6348,18 @@
         <v>491</v>
       </c>
       <c r="AC3" t="n">
-        <v>481</v>
+        <v>480</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -6254,15 +6440,18 @@
         <v>754</v>
       </c>
       <c r="AC4" t="n">
-        <v>750</v>
+        <v>749</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>729</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -6343,15 +6532,18 @@
         <v>814</v>
       </c>
       <c r="AC5" t="n">
-        <v>801</v>
+        <v>800</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
         <v>1514</v>
@@ -6432,15 +6624,18 @@
         <v>997</v>
       </c>
       <c r="AC6" t="n">
-        <v>981</v>
+        <v>980</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>956</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
         <v>1587</v>
@@ -6521,15 +6716,18 @@
         <v>1062</v>
       </c>
       <c r="AC7" t="n">
-        <v>1051</v>
+        <v>1049</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1019</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
         <v>1474</v>
@@ -6610,15 +6808,18 @@
         <v>955</v>
       </c>
       <c r="AC8" t="n">
-        <v>942</v>
+        <v>941</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>918</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
         <v>307</v>
@@ -6701,13 +6902,16 @@
       <c r="AC9" t="n">
         <v>164</v>
       </c>
+      <c r="AD9" t="n">
+        <v>161</v>
+      </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="n">
         <v>918</v>
@@ -6788,15 +6992,18 @@
         <v>633</v>
       </c>
       <c r="AC10" t="n">
-        <v>626</v>
+        <v>625</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>402</v>
@@ -6877,15 +7084,18 @@
         <v>300</v>
       </c>
       <c r="AC11" t="n">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s"/>
       <c r="D12" t="n">
@@ -6964,15 +7174,18 @@
         <v>711</v>
       </c>
       <c r="AC12" t="n">
-        <v>778</v>
+        <v>776</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>794</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="n">
@@ -7053,13 +7266,16 @@
       <c r="AC13" t="n">
         <v>93</v>
       </c>
+      <c r="AD13" t="n">
+        <v>80</v>
+      </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s"/>
       <c r="D14" t="n">
@@ -7140,13 +7356,16 @@
       <c r="AC14" t="n">
         <v>143</v>
       </c>
+      <c r="AD14" t="n">
+        <v>111</v>
+      </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s"/>
       <c r="D15" t="n">
@@ -7225,15 +7444,18 @@
         <v>148</v>
       </c>
       <c r="AC15" t="n">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="n">
         <v>553</v>
@@ -7316,13 +7538,16 @@
       <c r="AC16" t="n">
         <v>360</v>
       </c>
+      <c r="AD16" t="n">
+        <v>358</v>
+      </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="n">
         <v>146</v>
@@ -7405,13 +7630,16 @@
       <c r="AC17" t="n">
         <v>107</v>
       </c>
+      <c r="AD17" t="n">
+        <v>105</v>
+      </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="n">
         <v>515</v>
@@ -7492,15 +7720,18 @@
         <v>328</v>
       </c>
       <c r="AC18" t="n">
-        <v>318</v>
+        <v>316</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="n">
         <v>281</v>
@@ -7583,13 +7814,16 @@
       <c r="AC19" t="n">
         <v>181</v>
       </c>
+      <c r="AD19" t="n">
+        <v>177</v>
+      </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="n">
         <v>157</v>
@@ -7672,10 +7906,13 @@
       <c r="AC20" t="n">
         <v>114</v>
       </c>
+      <c r="AD20" t="n">
+        <v>99</v>
+      </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -7705,6 +7942,7 @@
       <c r="AA21" t="s"/>
       <c r="AB21" t="s"/>
       <c r="AC21" t="s"/>
+      <c r="AD21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_07_testovani.xlsx
+++ b/ZBP_07_testovani.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>trideni</t>
   </si>
@@ -110,6 +110,9 @@
     <t>25. 5. 2021</t>
   </si>
   <si>
+    <t>22. 6. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -194,10 +197,10 @@
     <t>Školství a kultura</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE59"/>
+  <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,7 +583,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,16 +677,19 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -769,16 +775,19 @@
       <c r="AE2" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -864,16 +873,19 @@
       <c r="AE3" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -959,16 +971,19 @@
       <c r="AE4" t="n">
         <v>0.41</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
         <v>0.005</v>
@@ -1054,16 +1069,19 @@
       <c r="AE5" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1149,16 +1167,19 @@
       <c r="AE6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>0.005</v>
@@ -1244,16 +1265,19 @@
       <c r="AE7" t="n">
         <v>0.46</v>
       </c>
+      <c r="AF7" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1339,16 +1363,19 @@
       <c r="AE8" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF8" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1434,16 +1461,19 @@
       <c r="AE9" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF9" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1529,16 +1559,19 @@
       <c r="AE10" t="n">
         <v>0.54</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1624,16 +1657,19 @@
       <c r="AE11" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF11" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1719,16 +1755,19 @@
       <c r="AE12" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF12" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1814,16 +1853,19 @@
       <c r="AE13" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF13" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1909,16 +1951,19 @@
       <c r="AE14" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2004,16 +2049,19 @@
       <c r="AE15" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF15" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2099,16 +2147,19 @@
       <c r="AE16" t="n">
         <v>0.45</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2194,16 +2245,19 @@
       <c r="AE17" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2289,16 +2343,19 @@
       <c r="AE18" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF18" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2384,16 +2441,19 @@
       <c r="AE19" t="n">
         <v>0.37</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2479,16 +2539,19 @@
       <c r="AE20" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2574,16 +2637,19 @@
       <c r="AE21" t="n">
         <v>0.1</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2669,16 +2735,19 @@
       <c r="AE22" t="n">
         <v>0.61</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2764,16 +2833,19 @@
       <c r="AE23" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF23" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2859,16 +2931,19 @@
       <c r="AE24" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF24" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2954,16 +3029,19 @@
       <c r="AE25" t="n">
         <v>0.28</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3049,16 +3127,19 @@
       <c r="AE26" t="n">
         <v>0.05</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3144,16 +3225,19 @@
       <c r="AE27" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3239,16 +3323,19 @@
       <c r="AE28" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
         <v>0.005</v>
@@ -3334,16 +3421,19 @@
       <c r="AE29" t="n">
         <v>0.02</v>
       </c>
+      <c r="AF29" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3429,16 +3519,19 @@
       <c r="AE30" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="n">
         <v>0.005</v>
@@ -3524,16 +3617,19 @@
       <c r="AE31" t="n">
         <v>0.32</v>
       </c>
+      <c r="AF31" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3616,16 +3712,19 @@
       <c r="AE32" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3708,16 +3807,19 @@
       <c r="AE33" t="n">
         <v>0.1</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3800,16 +3902,19 @@
       <c r="AE34" t="n">
         <v>0.63</v>
       </c>
+      <c r="AF34" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3892,16 +3997,19 @@
       <c r="AE35" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3984,16 +4092,19 @@
       <c r="AE36" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -4076,16 +4187,19 @@
       <c r="AE37" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E38" t="n">
         <v>0.005</v>
@@ -4168,16 +4282,19 @@
       <c r="AE38" t="n">
         <v>0.02</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -4260,16 +4377,19 @@
       <c r="AE39" t="n">
         <v>0.05</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E40" t="n">
         <v>0.01</v>
@@ -4352,16 +4472,19 @@
       <c r="AE40" t="n">
         <v>0.28</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E41" t="n">
         <v>0.005</v>
@@ -4444,16 +4567,19 @@
       <c r="AE41" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -4536,16 +4662,19 @@
       <c r="AE42" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E43" t="n">
         <v>0.01</v>
@@ -4628,16 +4757,19 @@
       <c r="AE43" t="n">
         <v>0.31</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4723,16 +4855,19 @@
       <c r="AE44" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4818,16 +4953,19 @@
       <c r="AE45" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4913,16 +5051,19 @@
       <c r="AE46" t="n">
         <v>0.47</v>
       </c>
+      <c r="AF46" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -5008,16 +5149,19 @@
       <c r="AE47" t="n">
         <v>0.005</v>
       </c>
+      <c r="AF47" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -5103,16 +5247,19 @@
       <c r="AE48" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AF48" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -5198,16 +5345,19 @@
       <c r="AE49" t="n">
         <v>0.54</v>
       </c>
+      <c r="AF49" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -5293,16 +5443,19 @@
       <c r="AE50" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF50" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -5388,16 +5541,19 @@
       <c r="AE51" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF51" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -5483,16 +5639,19 @@
       <c r="AE52" t="n">
         <v>0.6</v>
       </c>
+      <c r="AF52" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" t="n">
         <v>0.005</v>
@@ -5578,16 +5737,19 @@
       <c r="AE53" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF53" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -5673,16 +5835,19 @@
       <c r="AE54" t="n">
         <v>0.1</v>
       </c>
+      <c r="AF54" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -5768,16 +5933,19 @@
       <c r="AE55" t="n">
         <v>0.57</v>
       </c>
+      <c r="AF55" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -5863,16 +6031,19 @@
       <c r="AE56" t="n">
         <v>0.05</v>
       </c>
+      <c r="AF56" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -5958,16 +6129,19 @@
       <c r="AE57" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF57" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -6053,10 +6227,13 @@
       <c r="AE58" t="n">
         <v>0.43</v>
       </c>
+      <c r="AF58" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6070,7 +6247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6078,7 +6255,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6169,13 +6346,16 @@
       <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -6261,13 +6441,16 @@
       <c r="AD2" t="n">
         <v>1975</v>
       </c>
+      <c r="AE2" t="n">
+        <v>1904</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -6353,13 +6536,16 @@
       <c r="AD3" t="n">
         <v>471</v>
       </c>
+      <c r="AE3" t="n">
+        <v>459</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -6445,13 +6631,16 @@
       <c r="AD4" t="n">
         <v>729</v>
       </c>
+      <c r="AE4" t="n">
+        <v>699</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -6537,13 +6726,16 @@
       <c r="AD5" t="n">
         <v>775</v>
       </c>
+      <c r="AE5" t="n">
+        <v>746</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
         <v>1514</v>
@@ -6629,13 +6821,16 @@
       <c r="AD6" t="n">
         <v>956</v>
       </c>
+      <c r="AE6" t="n">
+        <v>937</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n">
         <v>1587</v>
@@ -6721,13 +6916,16 @@
       <c r="AD7" t="n">
         <v>1019</v>
       </c>
+      <c r="AE7" t="n">
+        <v>967</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n">
         <v>1474</v>
@@ -6813,13 +7011,16 @@
       <c r="AD8" t="n">
         <v>918</v>
       </c>
+      <c r="AE8" t="n">
+        <v>900</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n">
         <v>307</v>
@@ -6905,13 +7106,16 @@
       <c r="AD9" t="n">
         <v>161</v>
       </c>
+      <c r="AE9" t="n">
+        <v>159</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>918</v>
@@ -6997,13 +7201,16 @@
       <c r="AD10" t="n">
         <v>602</v>
       </c>
+      <c r="AE10" t="n">
+        <v>578</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="n">
         <v>402</v>
@@ -7089,13 +7296,16 @@
       <c r="AD11" t="n">
         <v>294</v>
       </c>
+      <c r="AE11" t="n">
+        <v>267</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s"/>
       <c r="D12" t="n">
@@ -7179,13 +7389,16 @@
       <c r="AD12" t="n">
         <v>794</v>
       </c>
+      <c r="AE12" t="n">
+        <v>809</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="n">
@@ -7269,13 +7482,16 @@
       <c r="AD13" t="n">
         <v>80</v>
       </c>
+      <c r="AE13" t="n">
+        <v>87</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s"/>
       <c r="D14" t="n">
@@ -7359,13 +7575,16 @@
       <c r="AD14" t="n">
         <v>111</v>
       </c>
+      <c r="AE14" t="n">
+        <v>90</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s"/>
       <c r="D15" t="n">
@@ -7449,13 +7668,16 @@
       <c r="AD15" t="n">
         <v>93</v>
       </c>
+      <c r="AE15" t="n">
+        <v>73</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="n">
         <v>553</v>
@@ -7541,13 +7763,16 @@
       <c r="AD16" t="n">
         <v>358</v>
       </c>
+      <c r="AE16" t="n">
+        <v>355</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="n">
         <v>146</v>
@@ -7633,13 +7858,16 @@
       <c r="AD17" t="n">
         <v>105</v>
       </c>
+      <c r="AE17" t="n">
+        <v>107</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" t="n">
         <v>515</v>
@@ -7725,13 +7953,16 @@
       <c r="AD18" t="n">
         <v>308</v>
       </c>
+      <c r="AE18" t="n">
+        <v>285</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="n">
         <v>281</v>
@@ -7817,13 +8048,16 @@
       <c r="AD19" t="n">
         <v>177</v>
       </c>
+      <c r="AE19" t="n">
+        <v>164</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="n">
         <v>157</v>
@@ -7909,10 +8143,13 @@
       <c r="AD20" t="n">
         <v>99</v>
       </c>
+      <c r="AE20" t="n">
+        <v>104</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -7943,6 +8180,7 @@
       <c r="AB21" t="s"/>
       <c r="AC21" t="s"/>
       <c r="AD21" t="s"/>
+      <c r="AE21" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_07_testovani.xlsx
+++ b/ZBP_07_testovani.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,197 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
-  <si>
-    <t>trideni</t>
-  </si>
-  <si>
-    <t>kategorie trideni</t>
-  </si>
-  <si>
-    <t>ukazatel</t>
-  </si>
-  <si>
-    <t>19. 3. 2020</t>
-  </si>
-  <si>
-    <t>1. 4. 2020</t>
-  </si>
-  <si>
-    <t>15. 4. 2020</t>
-  </si>
-  <si>
-    <t>28. 4. 2020</t>
-  </si>
-  <si>
-    <t>12. 5. 2020</t>
-  </si>
-  <si>
-    <t>26. 5. 2020</t>
-  </si>
-  <si>
-    <t>16. 6. 2020</t>
-  </si>
-  <si>
-    <t>30. 6. 2020</t>
-  </si>
-  <si>
-    <t>21. 7. 2020</t>
-  </si>
-  <si>
-    <t>11. 8. 2020</t>
-  </si>
-  <si>
-    <t>1. 9. 2020</t>
-  </si>
-  <si>
-    <t>15. 9. 2020</t>
-  </si>
-  <si>
-    <t>30. 9. 2020</t>
-  </si>
-  <si>
-    <t>13. 10. 2020</t>
-  </si>
-  <si>
-    <t>27. 10. 2020</t>
-  </si>
-  <si>
-    <t>10. 11. 2020</t>
-  </si>
-  <si>
-    <t>24. 11. 2020</t>
-  </si>
-  <si>
-    <t>8. 12. 2020</t>
-  </si>
-  <si>
-    <t>22. 12. 2020</t>
-  </si>
-  <si>
-    <t>5. 1. 2021</t>
-  </si>
-  <si>
-    <t>26. 1. 2021</t>
-  </si>
-  <si>
-    <t>16. 2. 2021</t>
-  </si>
-  <si>
-    <t>2. 3. 2021</t>
-  </si>
-  <si>
-    <t>16. 3. 2021</t>
-  </si>
-  <si>
-    <t>30. 3. 2021</t>
-  </si>
-  <si>
-    <t>13. 4. 2021</t>
-  </si>
-  <si>
-    <t>4. 5. 2021</t>
-  </si>
-  <si>
-    <t>25. 5. 2021</t>
-  </si>
-  <si>
-    <t>22. 6. 2021</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Celkem</t>
-  </si>
-  <si>
-    <t>Rizikoví netestovaní</t>
-  </si>
-  <si>
-    <t>Rizikoví testovaní</t>
-  </si>
-  <si>
-    <t>Ostatní testovaní</t>
-  </si>
-  <si>
-    <t>Věk</t>
-  </si>
-  <si>
-    <t>18 až 34 let</t>
-  </si>
-  <si>
-    <t>35 až 54 let</t>
-  </si>
-  <si>
-    <t>55 a více let</t>
-  </si>
-  <si>
-    <t>Pohlaví</t>
-  </si>
-  <si>
-    <t>Muž</t>
-  </si>
-  <si>
-    <t>Žena</t>
-  </si>
-  <si>
-    <t>Pracovní status aktuální</t>
-  </si>
-  <si>
-    <t>Zaměstnanec</t>
-  </si>
-  <si>
-    <t>OSVČ</t>
-  </si>
-  <si>
-    <t>Důchodce</t>
-  </si>
-  <si>
-    <t>Ostatní</t>
-  </si>
-  <si>
-    <t>Práce na home office</t>
-  </si>
-  <si>
-    <t>Plná osobní přítomnost v práci</t>
-  </si>
-  <si>
-    <t>Půl napůl osobní přítomnost a home office</t>
-  </si>
-  <si>
-    <t>Plný home office</t>
-  </si>
-  <si>
-    <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
-  </si>
-  <si>
-    <t>Obor práce</t>
-  </si>
-  <si>
-    <t>Obchod a služby</t>
-  </si>
-  <si>
-    <t>IT a finance</t>
-  </si>
-  <si>
-    <t>Průmysl a zemědělství</t>
-  </si>
-  <si>
-    <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
-  </si>
-  <si>
-    <t>Školství a kultura</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -264,25 +73,92 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -575,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF59"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,113 +459,188 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ukazatel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>19. 3. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -778,16 +729,25 @@
       <c r="AF2" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -876,16 +836,25 @@
       <c r="AF3" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -974,16 +943,25 @@
       <c r="AF4" t="n">
         <v>0.42</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0.005</v>
@@ -1072,16 +1050,25 @@
       <c r="AF5" t="n">
         <v>0.05</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1170,16 +1157,25 @@
       <c r="AF6" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0.005</v>
@@ -1268,16 +1264,25 @@
       <c r="AF7" t="n">
         <v>0.48</v>
       </c>
+      <c r="AG7" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1366,16 +1371,25 @@
       <c r="AF8" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1464,16 +1478,25 @@
       <c r="AF9" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1562,16 +1585,25 @@
       <c r="AF10" t="n">
         <v>0.54</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1660,16 +1692,25 @@
       <c r="AF11" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1758,16 +1799,25 @@
       <c r="AF12" t="n">
         <v>0.05</v>
       </c>
+      <c r="AG12" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1856,16 +1906,25 @@
       <c r="AF13" t="n">
         <v>0.26</v>
       </c>
+      <c r="AG13" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="14" spans="1:32">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1954,16 +2013,25 @@
       <c r="AF14" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2052,16 +2120,25 @@
       <c r="AF15" t="n">
         <v>0.08</v>
       </c>
+      <c r="AG15" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="16" spans="1:32">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2150,16 +2227,25 @@
       <c r="AF16" t="n">
         <v>0.47</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="17" spans="1:32">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2248,16 +2334,25 @@
       <c r="AF17" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="18" spans="1:32">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2346,16 +2441,25 @@
       <c r="AF18" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG18" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="19" spans="1:32">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2444,16 +2548,25 @@
       <c r="AF19" t="n">
         <v>0.37</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="20" spans="1:32">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2542,16 +2655,25 @@
       <c r="AF20" t="n">
         <v>0.05</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="21" spans="1:32">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2640,16 +2762,25 @@
       <c r="AF21" t="n">
         <v>0.09</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="22" spans="1:32">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2738,16 +2869,25 @@
       <c r="AF22" t="n">
         <v>0.6</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="23" spans="1:32">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2836,16 +2976,25 @@
       <c r="AF23" t="n">
         <v>0.05</v>
       </c>
+      <c r="AG23" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="24" spans="1:32">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2934,16 +3083,25 @@
       <c r="AF24" t="n">
         <v>0.08</v>
       </c>
+      <c r="AG24" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3032,16 +3190,25 @@
       <c r="AF25" t="n">
         <v>0.35</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="26" spans="1:32">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3130,16 +3297,25 @@
       <c r="AF26" t="n">
         <v>0.05</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="27" spans="1:32">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3228,16 +3404,25 @@
       <c r="AF27" t="n">
         <v>0.02</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="28" spans="1:32">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3326,16 +3511,25 @@
       <c r="AF28" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="29" spans="1:32">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D29" t="n">
         <v>0.005</v>
@@ -3424,16 +3618,25 @@
       <c r="AF29" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG29" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="30" spans="1:32">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3522,16 +3725,25 @@
       <c r="AF30" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="31" spans="1:32">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>0.005</v>
@@ -3620,16 +3832,25 @@
       <c r="AF31" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG31" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="32" spans="1:32">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3715,16 +3936,25 @@
       <c r="AF32" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="33" spans="1:32">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3810,16 +4040,25 @@
       <c r="AF33" t="n">
         <v>0.09</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="34" spans="1:32">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3905,16 +4144,25 @@
       <c r="AF34" t="n">
         <v>0.61</v>
       </c>
+      <c r="AG34" t="n">
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="35" spans="1:32">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -4000,16 +4248,25 @@
       <c r="AF35" t="n">
         <v>0.09</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="36" spans="1:32">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -4095,16 +4352,25 @@
       <c r="AF36" t="n">
         <v>0.005</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="37" spans="1:32">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -4190,16 +4456,25 @@
       <c r="AF37" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="38" spans="1:32">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="E38" t="n">
         <v>0.005</v>
@@ -4285,16 +4560,25 @@
       <c r="AF38" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:32">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -4380,16 +4664,25 @@
       <c r="AF39" t="n">
         <v>0.05</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="40" spans="1:32">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="E40" t="n">
         <v>0.01</v>
@@ -4475,16 +4768,25 @@
       <c r="AF40" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="41" spans="1:32">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="E41" t="n">
         <v>0.005</v>
@@ -4570,16 +4872,25 @@
       <c r="AF41" t="n">
         <v>0.05</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="42" spans="1:32">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" t="s">
-        <v>35</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -4665,16 +4976,25 @@
       <c r="AF42" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="43" spans="1:32">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" t="s">
-        <v>36</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="E43" t="n">
         <v>0.01</v>
@@ -4760,16 +5080,25 @@
       <c r="AF43" t="n">
         <v>0.37</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="44" spans="1:32">
-      <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4858,16 +5187,25 @@
       <c r="AF44" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="45" spans="1:32">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" t="s">
-        <v>35</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4956,16 +5294,25 @@
       <c r="AF45" t="n">
         <v>0.08</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="46" spans="1:32">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" t="s">
-        <v>36</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -5054,16 +5401,25 @@
       <c r="AF46" t="n">
         <v>0.49</v>
       </c>
+      <c r="AG46" t="n">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="47" spans="1:32">
-      <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -5152,16 +5508,25 @@
       <c r="AF47" t="n">
         <v>0.05</v>
       </c>
+      <c r="AG47" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="48" spans="1:32">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -5250,16 +5615,25 @@
       <c r="AF48" t="n">
         <v>0.015</v>
       </c>
+      <c r="AG48" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="49" spans="1:32">
-      <c r="A49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" t="s">
-        <v>36</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -5348,16 +5722,25 @@
       <c r="AF49" t="n">
         <v>0.6</v>
       </c>
+      <c r="AG49" t="n">
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="50" spans="1:32">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" t="s">
-        <v>34</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -5446,16 +5829,25 @@
       <c r="AF50" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG50" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="51" spans="1:32">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" t="s">
-        <v>35</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -5544,16 +5936,25 @@
       <c r="AF51" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG51" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="52" spans="1:32">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -5642,16 +6043,25 @@
       <c r="AF52" t="n">
         <v>0.55</v>
       </c>
+      <c r="AG52" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="53" spans="1:32">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D53" t="n">
         <v>0.005</v>
@@ -5740,16 +6150,25 @@
       <c r="AF53" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG53" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="54" spans="1:32">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" t="s">
-        <v>35</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -5838,16 +6257,25 @@
       <c r="AF54" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG54" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="55" spans="1:32">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -5936,16 +6364,25 @@
       <c r="AF55" t="n">
         <v>0.55</v>
       </c>
+      <c r="AG55" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="56" spans="1:32">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" t="s">
-        <v>34</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -6034,16 +6471,25 @@
       <c r="AF56" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG56" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="57" spans="1:32">
-      <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" t="s">
-        <v>35</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -6132,16 +6578,25 @@
       <c r="AF57" t="n">
         <v>0.12</v>
       </c>
+      <c r="AG57" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="58" spans="1:32">
-      <c r="A58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -6230,14 +6685,19 @@
       <c r="AF58" t="n">
         <v>0.4</v>
       </c>
+      <c r="AG58" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="59" spans="1:32">
-      <c r="A59" t="s">
-        <v>60</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6247,7 +6707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6255,107 +6715,178 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>19. 3. 2020</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -6444,13 +6975,20 @@
       <c r="AE2" t="n">
         <v>1904</v>
       </c>
+      <c r="AF2" t="n">
+        <v>1782</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -6539,13 +7077,20 @@
       <c r="AE3" t="n">
         <v>459</v>
       </c>
+      <c r="AF3" t="n">
+        <v>430</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -6634,13 +7179,20 @@
       <c r="AE4" t="n">
         <v>699</v>
       </c>
+      <c r="AF4" t="n">
+        <v>648</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -6729,13 +7281,20 @@
       <c r="AE5" t="n">
         <v>746</v>
       </c>
+      <c r="AF5" t="n">
+        <v>704</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>1514</v>
@@ -6824,13 +7383,20 @@
       <c r="AE6" t="n">
         <v>937</v>
       </c>
+      <c r="AF6" t="n">
+        <v>863</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>1587</v>
@@ -6919,13 +7485,20 @@
       <c r="AE7" t="n">
         <v>967</v>
       </c>
+      <c r="AF7" t="n">
+        <v>919</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>1474</v>
@@ -7014,13 +7587,20 @@
       <c r="AE8" t="n">
         <v>900</v>
       </c>
+      <c r="AF8" t="n">
+        <v>863</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>307</v>
@@ -7109,13 +7689,20 @@
       <c r="AE9" t="n">
         <v>159</v>
       </c>
+      <c r="AF9" t="n">
+        <v>145</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>918</v>
@@ -7204,13 +7791,20 @@
       <c r="AE10" t="n">
         <v>578</v>
       </c>
+      <c r="AF10" t="n">
+        <v>554</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pracovní status aktuální</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>402</v>
@@ -7299,15 +7893,22 @@
       <c r="AE11" t="n">
         <v>267</v>
       </c>
+      <c r="AF11" t="n">
+        <v>220</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s"/>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Plná osobní přítomnost v práci</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
         <v>690</v>
       </c>
@@ -7392,15 +7993,22 @@
       <c r="AE12" t="n">
         <v>809</v>
       </c>
+      <c r="AF12" t="n">
+        <v>662</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s"/>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Půl napůl osobní přítomnost a home office</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
         <v>146</v>
       </c>
@@ -7485,15 +8093,22 @@
       <c r="AE13" t="n">
         <v>87</v>
       </c>
+      <c r="AF13" t="n">
+        <v>90</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s"/>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Plný home office</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
         <v>326</v>
       </c>
@@ -7578,15 +8193,22 @@
       <c r="AE14" t="n">
         <v>90</v>
       </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s"/>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Práce na home office</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
         <v>351</v>
       </c>
@@ -7671,13 +8293,20 @@
       <c r="AE15" t="n">
         <v>73</v>
       </c>
+      <c r="AF15" t="n">
+        <v>189</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>553</v>
@@ -7766,13 +8395,20 @@
       <c r="AE16" t="n">
         <v>355</v>
       </c>
+      <c r="AF16" t="n">
+        <v>336</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>146</v>
@@ -7861,13 +8497,20 @@
       <c r="AE17" t="n">
         <v>107</v>
       </c>
+      <c r="AF17" t="n">
+        <v>102</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>515</v>
@@ -7956,13 +8599,20 @@
       <c r="AE18" t="n">
         <v>285</v>
       </c>
+      <c r="AF18" t="n">
+        <v>276</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>281</v>
@@ -8051,13 +8701,20 @@
       <c r="AE19" t="n">
         <v>164</v>
       </c>
+      <c r="AF19" t="n">
+        <v>151</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>157</v>
@@ -8146,43 +8803,49 @@
       <c r="AE20" t="n">
         <v>104</v>
       </c>
+      <c r="AF20" t="n">
+        <v>97</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
-      <c r="D21" t="s"/>
-      <c r="E21" t="s"/>
-      <c r="F21" t="s"/>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
-      <c r="M21" t="s"/>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
-      <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
-      <c r="V21" t="s"/>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
-      <c r="Z21" t="s"/>
-      <c r="AA21" t="s"/>
-      <c r="AB21" t="s"/>
-      <c r="AC21" t="s"/>
-      <c r="AD21" t="s"/>
-      <c r="AE21" t="s"/>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ZBP_07_testovani.xlsx
+++ b/ZBP_07_testovani.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG59"/>
+  <dimension ref="A1:AH59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +737,9 @@
       <c r="AG2" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -839,6 +847,9 @@
       <c r="AG3" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -946,6 +957,9 @@
       <c r="AG4" t="n">
         <v>0.34</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1053,6 +1067,9 @@
       <c r="AG5" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1160,6 +1177,9 @@
       <c r="AG6" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1267,6 +1287,9 @@
       <c r="AG7" t="n">
         <v>0.43</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1374,6 +1397,9 @@
       <c r="AG8" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1481,6 +1507,9 @@
       <c r="AG9" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1588,6 +1617,9 @@
       <c r="AG10" t="n">
         <v>0.45</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1695,6 +1727,9 @@
       <c r="AG11" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1802,6 +1837,9 @@
       <c r="AG12" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1909,6 +1947,9 @@
       <c r="AG13" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2016,6 +2057,9 @@
       <c r="AG14" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2123,6 +2167,9 @@
       <c r="AG15" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2230,6 +2277,9 @@
       <c r="AG16" t="n">
         <v>0.36</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2337,6 +2387,9 @@
       <c r="AG17" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2444,6 +2497,9 @@
       <c r="AG18" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2551,6 +2607,9 @@
       <c r="AG19" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2658,6 +2717,9 @@
       <c r="AG20" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2765,6 +2827,9 @@
       <c r="AG21" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2872,6 +2937,9 @@
       <c r="AG22" t="n">
         <v>0.48</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2979,6 +3047,9 @@
       <c r="AG23" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3086,6 +3157,9 @@
       <c r="AG24" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3193,6 +3267,9 @@
       <c r="AG25" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3300,6 +3377,9 @@
       <c r="AG26" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3407,6 +3487,9 @@
       <c r="AG27" t="n">
         <v>0.015</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3514,6 +3597,9 @@
       <c r="AG28" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3621,6 +3707,9 @@
       <c r="AG29" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3728,6 +3817,9 @@
       <c r="AG30" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3835,6 +3927,9 @@
       <c r="AG31" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3939,6 +4034,9 @@
       <c r="AG32" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4043,6 +4141,9 @@
       <c r="AG33" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4147,6 +4248,9 @@
       <c r="AG34" t="n">
         <v>0.51</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4251,6 +4355,9 @@
       <c r="AG35" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4355,6 +4462,9 @@
       <c r="AG36" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4459,6 +4569,9 @@
       <c r="AG37" t="n">
         <v>0.47</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4563,6 +4676,9 @@
       <c r="AG38" t="n">
         <v>0</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4667,6 +4783,9 @@
       <c r="AG39" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4771,6 +4890,9 @@
       <c r="AG40" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4875,6 +4997,9 @@
       <c r="AG41" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4979,6 +5104,9 @@
       <c r="AG42" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5083,6 +5211,9 @@
       <c r="AG43" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5190,6 +5321,9 @@
       <c r="AG44" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5297,6 +5431,9 @@
       <c r="AG45" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5404,6 +5541,9 @@
       <c r="AG46" t="n">
         <v>0.44</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5511,6 +5651,9 @@
       <c r="AG47" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5618,6 +5761,9 @@
       <c r="AG48" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5725,6 +5871,9 @@
       <c r="AG49" t="n">
         <v>0.41</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5832,6 +5981,9 @@
       <c r="AG50" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5939,6 +6091,9 @@
       <c r="AG51" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6046,6 +6201,9 @@
       <c r="AG52" t="n">
         <v>0.52</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6153,6 +6311,9 @@
       <c r="AG53" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6260,6 +6421,9 @@
       <c r="AG54" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6367,6 +6531,9 @@
       <c r="AG55" t="n">
         <v>0.35</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6474,6 +6641,9 @@
       <c r="AG56" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6581,6 +6751,9 @@
       <c r="AG57" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6688,11 +6861,14 @@
       <c r="AG58" t="n">
         <v>0.36</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6876,6 +7052,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6978,6 +7159,9 @@
       <c r="AF2" t="n">
         <v>1782</v>
       </c>
+      <c r="AG2" t="n">
+        <v>1901</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7080,6 +7264,9 @@
       <c r="AF3" t="n">
         <v>430</v>
       </c>
+      <c r="AG3" t="n">
+        <v>452</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7182,6 +7369,9 @@
       <c r="AF4" t="n">
         <v>648</v>
       </c>
+      <c r="AG4" t="n">
+        <v>709</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7284,6 +7474,9 @@
       <c r="AF5" t="n">
         <v>704</v>
       </c>
+      <c r="AG5" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7386,6 +7579,9 @@
       <c r="AF6" t="n">
         <v>863</v>
       </c>
+      <c r="AG6" t="n">
+        <v>937</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7488,6 +7684,9 @@
       <c r="AF7" t="n">
         <v>919</v>
       </c>
+      <c r="AG7" t="n">
+        <v>964</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7590,6 +7789,9 @@
       <c r="AF8" t="n">
         <v>863</v>
       </c>
+      <c r="AG8" t="n">
+        <v>917</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7692,6 +7894,9 @@
       <c r="AF9" t="n">
         <v>145</v>
       </c>
+      <c r="AG9" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7794,6 +7999,9 @@
       <c r="AF10" t="n">
         <v>554</v>
       </c>
+      <c r="AG10" t="n">
+        <v>586</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7896,6 +8104,9 @@
       <c r="AF11" t="n">
         <v>220</v>
       </c>
+      <c r="AG11" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7996,6 +8207,9 @@
       <c r="AF12" t="n">
         <v>662</v>
       </c>
+      <c r="AG12" t="n">
+        <v>671</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8096,6 +8310,9 @@
       <c r="AF13" t="n">
         <v>90</v>
       </c>
+      <c r="AG13" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8196,6 +8413,9 @@
       <c r="AF14" t="n">
         <v>67</v>
       </c>
+      <c r="AG14" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8296,6 +8516,9 @@
       <c r="AF15" t="n">
         <v>189</v>
       </c>
+      <c r="AG15" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8398,6 +8621,9 @@
       <c r="AF16" t="n">
         <v>336</v>
       </c>
+      <c r="AG16" t="n">
+        <v>348</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8500,6 +8726,9 @@
       <c r="AF17" t="n">
         <v>102</v>
       </c>
+      <c r="AG17" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8602,6 +8831,9 @@
       <c r="AF18" t="n">
         <v>276</v>
       </c>
+      <c r="AG18" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8704,6 +8936,9 @@
       <c r="AF19" t="n">
         <v>151</v>
       </c>
+      <c r="AG19" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8806,11 +9041,14 @@
       <c r="AF20" t="n">
         <v>97</v>
       </c>
+      <c r="AG20" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -8844,6 +9082,7 @@
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_07_testovani.xlsx
+++ b/ZBP_07_testovani.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH59"/>
+  <dimension ref="A1:AI59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -740,6 +745,9 @@
       <c r="AH2" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -850,6 +858,9 @@
       <c r="AH3" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -960,6 +971,9 @@
       <c r="AH4" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1070,6 +1084,9 @@
       <c r="AH5" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1180,6 +1197,9 @@
       <c r="AH6" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1290,6 +1310,9 @@
       <c r="AH7" t="n">
         <v>0.32</v>
       </c>
+      <c r="AI7" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1400,6 +1423,9 @@
       <c r="AH8" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI8" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1510,6 +1536,9 @@
       <c r="AH9" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1620,6 +1649,9 @@
       <c r="AH10" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1730,6 +1762,9 @@
       <c r="AH11" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI11" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1840,6 +1875,9 @@
       <c r="AH12" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI12" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1950,6 +1988,9 @@
       <c r="AH13" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI13" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2060,6 +2101,9 @@
       <c r="AH14" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2170,6 +2214,9 @@
       <c r="AH15" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI15" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2280,6 +2327,9 @@
       <c r="AH16" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2390,6 +2440,9 @@
       <c r="AH17" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2500,6 +2553,9 @@
       <c r="AH18" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI18" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2610,6 +2666,9 @@
       <c r="AH19" t="n">
         <v>0.2</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2720,6 +2779,9 @@
       <c r="AH20" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2830,6 +2892,9 @@
       <c r="AH21" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2940,6 +3005,9 @@
       <c r="AH22" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3050,6 +3118,9 @@
       <c r="AH23" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI23" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3160,6 +3231,9 @@
       <c r="AH24" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI24" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3270,6 +3344,9 @@
       <c r="AH25" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3380,6 +3457,9 @@
       <c r="AH26" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3490,6 +3570,9 @@
       <c r="AH27" t="n">
         <v>0.015</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3600,6 +3683,9 @@
       <c r="AH28" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3710,6 +3796,9 @@
       <c r="AH29" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3820,6 +3909,9 @@
       <c r="AH30" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3930,6 +4022,9 @@
       <c r="AH31" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI31" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4037,6 +4132,9 @@
       <c r="AH32" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4144,6 +4242,9 @@
       <c r="AH33" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4251,6 +4352,9 @@
       <c r="AH34" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI34" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4358,6 +4462,9 @@
       <c r="AH35" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4465,6 +4572,9 @@
       <c r="AH36" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4572,6 +4682,9 @@
       <c r="AH37" t="n">
         <v>0.35</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4679,6 +4792,9 @@
       <c r="AH38" t="n">
         <v>0.01</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4786,6 +4902,9 @@
       <c r="AH39" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4893,6 +5012,9 @@
       <c r="AH40" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5000,6 +5122,9 @@
       <c r="AH41" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5107,6 +5232,9 @@
       <c r="AH42" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5214,6 +5342,9 @@
       <c r="AH43" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5324,6 +5455,9 @@
       <c r="AH44" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5434,6 +5568,9 @@
       <c r="AH45" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5544,6 +5681,9 @@
       <c r="AH46" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI46" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5654,6 +5794,9 @@
       <c r="AH47" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI47" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5764,6 +5907,9 @@
       <c r="AH48" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5874,6 +6020,9 @@
       <c r="AH49" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI49" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5984,6 +6133,9 @@
       <c r="AH50" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI50" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6094,6 +6246,9 @@
       <c r="AH51" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI51" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6204,6 +6359,9 @@
       <c r="AH52" t="n">
         <v>0.32</v>
       </c>
+      <c r="AI52" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6314,6 +6472,9 @@
       <c r="AH53" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI53" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6424,6 +6585,9 @@
       <c r="AH54" t="n">
         <v>0.015</v>
       </c>
+      <c r="AI54" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6534,6 +6698,9 @@
       <c r="AH55" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI55" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6644,6 +6811,9 @@
       <c r="AH56" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI56" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6754,6 +6924,9 @@
       <c r="AH57" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI57" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6864,11 +7037,14 @@
       <c r="AH58" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI58" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -6883,7 +7059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7057,6 +7233,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7162,6 +7343,9 @@
       <c r="AG2" t="n">
         <v>1901</v>
       </c>
+      <c r="AH2" t="n">
+        <v>1855</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7267,6 +7451,9 @@
       <c r="AG3" t="n">
         <v>452</v>
       </c>
+      <c r="AH3" t="n">
+        <v>456</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7372,6 +7559,9 @@
       <c r="AG4" t="n">
         <v>709</v>
       </c>
+      <c r="AH4" t="n">
+        <v>678</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7477,6 +7667,9 @@
       <c r="AG5" t="n">
         <v>740</v>
       </c>
+      <c r="AH5" t="n">
+        <v>721</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7582,6 +7775,9 @@
       <c r="AG6" t="n">
         <v>937</v>
       </c>
+      <c r="AH6" t="n">
+        <v>897</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7687,6 +7883,9 @@
       <c r="AG7" t="n">
         <v>964</v>
       </c>
+      <c r="AH7" t="n">
+        <v>958</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7792,6 +7991,9 @@
       <c r="AG8" t="n">
         <v>917</v>
       </c>
+      <c r="AH8" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7897,6 +8099,9 @@
       <c r="AG9" t="n">
         <v>156</v>
       </c>
+      <c r="AH9" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8002,6 +8207,9 @@
       <c r="AG10" t="n">
         <v>586</v>
       </c>
+      <c r="AH10" t="n">
+        <v>568</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8107,6 +8315,9 @@
       <c r="AG11" t="n">
         <v>242</v>
       </c>
+      <c r="AH11" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8210,6 +8421,9 @@
       <c r="AG12" t="n">
         <v>671</v>
       </c>
+      <c r="AH12" t="n">
+        <v>833</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8313,6 +8527,9 @@
       <c r="AG13" t="n">
         <v>76</v>
       </c>
+      <c r="AH13" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8416,6 +8633,9 @@
       <c r="AG14" t="n">
         <v>65</v>
       </c>
+      <c r="AH14" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8519,6 +8739,9 @@
       <c r="AG15" t="n">
         <v>261</v>
       </c>
+      <c r="AH15" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8624,6 +8847,9 @@
       <c r="AG16" t="n">
         <v>348</v>
       </c>
+      <c r="AH16" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8729,6 +8955,9 @@
       <c r="AG17" t="n">
         <v>102</v>
       </c>
+      <c r="AH17" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8834,6 +9063,9 @@
       <c r="AG18" t="n">
         <v>308</v>
       </c>
+      <c r="AH18" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8939,6 +9171,9 @@
       <c r="AG19" t="n">
         <v>175</v>
       </c>
+      <c r="AH19" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9044,11 +9279,14 @@
       <c r="AG20" t="n">
         <v>96</v>
       </c>
+      <c r="AH20" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -9083,6 +9321,7 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_07_testovani.xlsx
+++ b/ZBP_07_testovani.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM77"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -780,6 +785,9 @@
       <c r="AM2" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN2" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -905,6 +913,9 @@
       <c r="AM3" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1030,6 +1041,9 @@
       <c r="AM4" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1155,6 +1169,9 @@
       <c r="AM5" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1280,6 +1297,9 @@
       <c r="AM6" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1405,6 +1425,9 @@
       <c r="AM7" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN7" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1470,6 +1493,9 @@
       <c r="AM8" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN8" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1535,6 +1561,9 @@
       <c r="AM9" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN9" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1600,6 +1629,9 @@
       <c r="AM10" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1725,6 +1757,9 @@
       <c r="AM11" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1850,6 +1885,9 @@
       <c r="AM12" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN12" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1975,6 +2013,9 @@
       <c r="AM13" t="n">
         <v>0.28</v>
       </c>
+      <c r="AN13" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2040,6 +2081,9 @@
       <c r="AM14" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2105,6 +2149,9 @@
       <c r="AM15" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN15" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2170,6 +2217,9 @@
       <c r="AM16" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2295,6 +2345,9 @@
       <c r="AM17" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2420,6 +2473,9 @@
       <c r="AM18" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN18" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2545,6 +2601,9 @@
       <c r="AM19" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2610,6 +2669,9 @@
       <c r="AM20" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2675,6 +2737,9 @@
       <c r="AM21" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2740,6 +2805,9 @@
       <c r="AM22" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2865,6 +2933,9 @@
       <c r="AM23" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN23" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2990,6 +3061,9 @@
       <c r="AM24" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN24" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3115,6 +3189,9 @@
       <c r="AM25" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3240,6 +3317,9 @@
       <c r="AM26" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3365,6 +3445,9 @@
       <c r="AM27" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3490,6 +3573,9 @@
       <c r="AM28" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3615,6 +3701,9 @@
       <c r="AM29" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3740,6 +3829,9 @@
       <c r="AM30" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3865,6 +3957,9 @@
       <c r="AM31" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN31" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3990,6 +4085,9 @@
       <c r="AM32" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4115,6 +4213,9 @@
       <c r="AM33" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4240,6 +4341,9 @@
       <c r="AM34" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN34" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4365,6 +4469,9 @@
       <c r="AM35" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4490,6 +4597,9 @@
       <c r="AM36" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4615,6 +4725,9 @@
       <c r="AM37" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4740,6 +4853,9 @@
       <c r="AM38" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4865,6 +4981,9 @@
       <c r="AM39" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4990,6 +5109,9 @@
       <c r="AM40" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5115,6 +5237,9 @@
       <c r="AM41" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5240,6 +5365,9 @@
       <c r="AM42" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5365,6 +5493,9 @@
       <c r="AM43" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5490,6 +5621,9 @@
       <c r="AM44" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5615,6 +5749,9 @@
       <c r="AM45" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5740,6 +5877,9 @@
       <c r="AM46" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN46" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5865,6 +6005,9 @@
       <c r="AM47" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN47" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5990,6 +6133,9 @@
       <c r="AM48" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN48" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6115,6 +6261,9 @@
       <c r="AM49" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN49" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6237,6 +6386,9 @@
       <c r="AM50" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN50" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6359,6 +6511,9 @@
       <c r="AM51" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN51" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6481,6 +6636,9 @@
       <c r="AM52" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN52" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6603,6 +6761,9 @@
       <c r="AM53" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN53" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6725,6 +6886,9 @@
       <c r="AM54" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN54" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6847,6 +7011,9 @@
       <c r="AM55" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN55" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6969,6 +7136,9 @@
       <c r="AM56" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN56" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7091,6 +7261,9 @@
       <c r="AM57" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN57" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7213,6 +7386,9 @@
       <c r="AM58" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN58" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7335,6 +7511,9 @@
       <c r="AM59" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN59" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7457,6 +7636,9 @@
       <c r="AM60" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN60" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7579,6 +7761,9 @@
       <c r="AM61" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7704,6 +7889,9 @@
       <c r="AM62" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN62" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7829,6 +8017,9 @@
       <c r="AM63" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN63" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7954,6 +8145,9 @@
       <c r="AM64" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN64" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8079,6 +8273,9 @@
       <c r="AM65" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN65" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8204,6 +8401,9 @@
       <c r="AM66" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN66" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8329,6 +8529,9 @@
       <c r="AM67" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN67" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8454,6 +8657,9 @@
       <c r="AM68" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN68" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8579,6 +8785,9 @@
       <c r="AM69" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN69" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8704,6 +8913,9 @@
       <c r="AM70" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN70" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8829,6 +9041,9 @@
       <c r="AM71" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN71" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8954,6 +9169,9 @@
       <c r="AM72" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN72" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9079,6 +9297,9 @@
       <c r="AM73" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN73" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9204,6 +9425,9 @@
       <c r="AM74" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN74" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9329,6 +9553,9 @@
       <c r="AM75" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN75" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9454,11 +9681,14 @@
       <c r="AM76" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN76" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -9473,7 +9703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL27"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9672,6 +9902,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9792,6 +10027,9 @@
       <c r="AL2" t="n">
         <v>1767</v>
       </c>
+      <c r="AM2" t="n">
+        <v>1815</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9911,6 +10149,9 @@
       </c>
       <c r="AL3" t="n">
         <v>406</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>412</v>
       </c>
     </row>
     <row r="4">
@@ -9992,6 +10233,9 @@
       <c r="AL4" t="n">
         <v>1361</v>
       </c>
+      <c r="AM4" t="n">
+        <v>1403</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10111,6 +10355,9 @@
       </c>
       <c r="AL5" t="n">
         <v>298</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="6">
@@ -10192,6 +10439,9 @@
       <c r="AL6" t="n">
         <v>774</v>
       </c>
+      <c r="AM6" t="n">
+        <v>797</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10311,6 +10561,9 @@
       </c>
       <c r="AL7" t="n">
         <v>108</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -10392,6 +10645,9 @@
       <c r="AL8" t="n">
         <v>587</v>
       </c>
+      <c r="AM8" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10512,6 +10768,9 @@
       <c r="AL9" t="n">
         <v>442</v>
       </c>
+      <c r="AM9" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10632,6 +10891,9 @@
       <c r="AL10" t="n">
         <v>647</v>
       </c>
+      <c r="AM10" t="n">
+        <v>676</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10752,6 +11014,9 @@
       <c r="AL11" t="n">
         <v>678</v>
       </c>
+      <c r="AM11" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10872,6 +11137,9 @@
       <c r="AL12" t="n">
         <v>862</v>
       </c>
+      <c r="AM12" t="n">
+        <v>880</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10992,6 +11260,9 @@
       <c r="AL13" t="n">
         <v>905</v>
       </c>
+      <c r="AM13" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11112,6 +11383,9 @@
       <c r="AL14" t="n">
         <v>846</v>
       </c>
+      <c r="AM14" t="n">
+        <v>858</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11232,6 +11506,9 @@
       <c r="AL15" t="n">
         <v>148</v>
       </c>
+      <c r="AM15" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11352,6 +11629,9 @@
       <c r="AL16" t="n">
         <v>529</v>
       </c>
+      <c r="AM16" t="n">
+        <v>551</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11472,6 +11752,9 @@
       <c r="AL17" t="n">
         <v>244</v>
       </c>
+      <c r="AM17" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11590,6 +11873,9 @@
       <c r="AL18" t="n">
         <v>567</v>
       </c>
+      <c r="AM18" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11708,6 +11994,9 @@
       <c r="AL19" t="n">
         <v>126</v>
       </c>
+      <c r="AM19" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11826,6 +12115,9 @@
       <c r="AL20" t="n">
         <v>80</v>
       </c>
+      <c r="AM20" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11944,6 +12236,9 @@
       <c r="AL21" t="n">
         <v>221</v>
       </c>
+      <c r="AM21" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12064,6 +12359,9 @@
       <c r="AL22" t="n">
         <v>328</v>
       </c>
+      <c r="AM22" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12184,6 +12482,9 @@
       <c r="AL23" t="n">
         <v>92</v>
       </c>
+      <c r="AM23" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12304,6 +12605,9 @@
       <c r="AL24" t="n">
         <v>288</v>
       </c>
+      <c r="AM24" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -12424,6 +12728,9 @@
       <c r="AL25" t="n">
         <v>160</v>
       </c>
+      <c r="AM25" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -12544,11 +12851,14 @@
       <c r="AL26" t="n">
         <v>89</v>
       </c>
+      <c r="AM26" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -12588,6 +12898,7 @@
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_07_testovani.xlsx
+++ b/ZBP_07_testovani.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AO89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +660,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -788,6 +793,9 @@
       <c r="AN2" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -914,7 +922,10 @@
         <v>0.08</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -1044,6 +1055,9 @@
       <c r="AN4" t="n">
         <v>0.27</v>
       </c>
+      <c r="AO4" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1172,6 +1186,9 @@
       <c r="AN5" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1300,6 +1317,9 @@
       <c r="AN6" t="n">
         <v>0.13</v>
       </c>
+      <c r="AO6" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1426,7 +1446,10 @@
         <v>0.24</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="8">
@@ -1496,6 +1519,9 @@
       <c r="AN8" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO8" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1564,6 +1590,9 @@
       <c r="AN9" t="n">
         <v>0.14</v>
       </c>
+      <c r="AO9" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1632,6 +1661,9 @@
       <c r="AN10" t="n">
         <v>0.27</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1760,6 +1792,9 @@
       <c r="AN11" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1886,7 +1921,10 @@
         <v>0.1</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="13">
@@ -2016,6 +2054,9 @@
       <c r="AN13" t="n">
         <v>0.3</v>
       </c>
+      <c r="AO13" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2084,6 +2125,9 @@
       <c r="AN14" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2152,6 +2196,9 @@
       <c r="AN15" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO15" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2220,6 +2267,9 @@
       <c r="AN16" t="n">
         <v>0.35</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2348,6 +2398,9 @@
       <c r="AN17" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2476,6 +2529,9 @@
       <c r="AN18" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO18" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2604,6 +2660,9 @@
       <c r="AN19" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO19" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2672,6 +2731,9 @@
       <c r="AN20" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2740,6 +2802,9 @@
       <c r="AN21" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2806,7 +2871,10 @@
         <v>0.08</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="23">
@@ -2936,6 +3004,9 @@
       <c r="AN23" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO23" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3062,7 +3133,10 @@
         <v>0.11</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="25">
@@ -3192,6 +3266,9 @@
       <c r="AN25" t="n">
         <v>0.27</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3320,6 +3397,9 @@
       <c r="AN26" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO26" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3448,6 +3528,9 @@
       <c r="AN27" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO27" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3576,6 +3659,9 @@
       <c r="AN28" t="n">
         <v>0.38</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3704,6 +3790,9 @@
       <c r="AN29" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO29" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3832,6 +3921,9 @@
       <c r="AN30" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3958,7 +4050,10 @@
         <v>0.09</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="32">
@@ -4088,6 +4183,9 @@
       <c r="AN32" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO32" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4216,6 +4314,9 @@
       <c r="AN33" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4344,6 +4445,9 @@
       <c r="AN34" t="n">
         <v>0.3</v>
       </c>
+      <c r="AO34" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4472,6 +4576,9 @@
       <c r="AN35" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO35" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4600,6 +4707,9 @@
       <c r="AN36" t="n">
         <v>0.1</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4728,6 +4838,9 @@
       <c r="AN37" t="n">
         <v>0.24</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4856,6 +4969,9 @@
       <c r="AN38" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4984,6 +5100,9 @@
       <c r="AN39" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5112,6 +5231,9 @@
       <c r="AN40" t="n">
         <v>0.46</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5240,6 +5362,9 @@
       <c r="AN41" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO41" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5368,6 +5493,9 @@
       <c r="AN42" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5494,7 +5622,10 @@
         <v>0.05</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="44">
@@ -5624,6 +5755,9 @@
       <c r="AN44" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO44" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5752,6 +5886,9 @@
       <c r="AN45" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO45" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5880,6 +6017,9 @@
       <c r="AN46" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO46" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6008,6 +6148,9 @@
       <c r="AN47" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO47" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6136,6 +6279,9 @@
       <c r="AN48" t="n">
         <v>0.09</v>
       </c>
+      <c r="AO48" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6264,6 +6410,9 @@
       <c r="AN49" t="n">
         <v>0.12</v>
       </c>
+      <c r="AO49" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6389,6 +6538,9 @@
       <c r="AN50" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO50" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6512,7 +6664,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="52">
@@ -6637,7 +6792,10 @@
         <v>0.23</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="53">
@@ -6764,6 +6922,9 @@
       <c r="AN53" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO53" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6887,7 +7048,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AN54" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="55">
@@ -7012,7 +7176,10 @@
         <v>0.23</v>
       </c>
       <c r="AN55" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="56">
@@ -7139,6 +7306,9 @@
       <c r="AN56" t="n">
         <v>0.14</v>
       </c>
+      <c r="AO56" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7262,7 +7432,10 @@
         <v>0.15</v>
       </c>
       <c r="AN57" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="58">
@@ -7389,6 +7562,9 @@
       <c r="AN58" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO58" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7514,6 +7690,9 @@
       <c r="AN59" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO59" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7639,6 +7818,9 @@
       <c r="AN60" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO60" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7764,6 +7946,9 @@
       <c r="AN61" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO61" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7892,6 +8077,9 @@
       <c r="AN62" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO62" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8020,6 +8208,9 @@
       <c r="AN63" t="n">
         <v>0.14</v>
       </c>
+      <c r="AO63" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8148,6 +8339,9 @@
       <c r="AN64" t="n">
         <v>0.29</v>
       </c>
+      <c r="AO64" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8274,7 +8468,10 @@
         <v>0.15</v>
       </c>
       <c r="AN65" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="66">
@@ -8404,6 +8601,9 @@
       <c r="AN66" t="n">
         <v>0.13</v>
       </c>
+      <c r="AO66" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8530,7 +8730,10 @@
         <v>0.1</v>
       </c>
       <c r="AN67" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="68">
@@ -8660,6 +8863,9 @@
       <c r="AN68" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO68" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8786,7 +8992,10 @@
         <v>0.09</v>
       </c>
       <c r="AN69" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="70">
@@ -8916,6 +9125,9 @@
       <c r="AN70" t="n">
         <v>0.45</v>
       </c>
+      <c r="AO70" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9044,6 +9256,9 @@
       <c r="AN71" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO71" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9170,7 +9385,10 @@
         <v>0.12</v>
       </c>
       <c r="AN72" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="73">
@@ -9298,7 +9516,10 @@
         <v>0.12</v>
       </c>
       <c r="AN73" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="74">
@@ -9428,6 +9649,9 @@
       <c r="AN74" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO74" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9556,6 +9780,9 @@
       <c r="AN75" t="n">
         <v>0.27</v>
       </c>
+      <c r="AO75" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9682,13 +9909,1588 @@
         <v>0.23</v>
       </c>
       <c r="AN76" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Rizikoví netestovaní</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Rizikoví testovaní</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Ostatní testovaní</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Testování, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -9703,7 +11505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9907,6 +11709,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -10028,7 +11835,10 @@
         <v>1767</v>
       </c>
       <c r="AM2" t="n">
-        <v>1815</v>
+        <v>1848</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1786</v>
       </c>
     </row>
     <row r="3">
@@ -10151,7 +11961,10 @@
         <v>406</v>
       </c>
       <c r="AM3" t="n">
-        <v>412</v>
+        <v>419</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="4">
@@ -10234,7 +12047,10 @@
         <v>1361</v>
       </c>
       <c r="AM4" t="n">
-        <v>1403</v>
+        <v>1429</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1420</v>
       </c>
     </row>
     <row r="5">
@@ -10357,7 +12173,10 @@
         <v>298</v>
       </c>
       <c r="AM5" t="n">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>275</v>
       </c>
     </row>
     <row r="6">
@@ -10440,7 +12259,10 @@
         <v>774</v>
       </c>
       <c r="AM6" t="n">
-        <v>797</v>
+        <v>815</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>808</v>
       </c>
     </row>
     <row r="7">
@@ -10563,7 +12385,10 @@
         <v>108</v>
       </c>
       <c r="AM7" t="n">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -10646,7 +12471,10 @@
         <v>587</v>
       </c>
       <c r="AM8" t="n">
-        <v>605</v>
+        <v>614</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>612</v>
       </c>
     </row>
     <row r="9">
@@ -10769,7 +12597,10 @@
         <v>442</v>
       </c>
       <c r="AM9" t="n">
-        <v>444</v>
+        <v>451</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>445</v>
       </c>
     </row>
     <row r="10">
@@ -10892,7 +12723,10 @@
         <v>647</v>
       </c>
       <c r="AM10" t="n">
-        <v>676</v>
+        <v>689</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>663</v>
       </c>
     </row>
     <row r="11">
@@ -11015,7 +12849,10 @@
         <v>678</v>
       </c>
       <c r="AM11" t="n">
-        <v>695</v>
+        <v>708</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>678</v>
       </c>
     </row>
     <row r="12">
@@ -11138,7 +12975,10 @@
         <v>862</v>
       </c>
       <c r="AM12" t="n">
-        <v>880</v>
+        <v>893</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>863</v>
       </c>
     </row>
     <row r="13">
@@ -11261,7 +13101,10 @@
         <v>905</v>
       </c>
       <c r="AM13" t="n">
-        <v>935</v>
+        <v>955</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>923</v>
       </c>
     </row>
     <row r="14">
@@ -11384,7 +13227,10 @@
         <v>846</v>
       </c>
       <c r="AM14" t="n">
-        <v>858</v>
+        <v>876</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>849</v>
       </c>
     </row>
     <row r="15">
@@ -11507,7 +13353,10 @@
         <v>148</v>
       </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -11630,7 +13479,10 @@
         <v>529</v>
       </c>
       <c r="AM16" t="n">
-        <v>551</v>
+        <v>562</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>543</v>
       </c>
     </row>
     <row r="17">
@@ -11753,7 +13605,10 @@
         <v>244</v>
       </c>
       <c r="AM17" t="n">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="18">
@@ -11874,7 +13729,10 @@
         <v>567</v>
       </c>
       <c r="AM18" t="n">
-        <v>740</v>
+        <v>759</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>714</v>
       </c>
     </row>
     <row r="19">
@@ -11995,7 +13853,10 @@
         <v>126</v>
       </c>
       <c r="AM19" t="n">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -12116,7 +13977,10 @@
         <v>80</v>
       </c>
       <c r="AM20" t="n">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="21">
@@ -12237,7 +14101,10 @@
         <v>221</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -12360,7 +14227,10 @@
         <v>328</v>
       </c>
       <c r="AM22" t="n">
-        <v>339</v>
+        <v>341</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>317</v>
       </c>
     </row>
     <row r="23">
@@ -12483,7 +14353,10 @@
         <v>92</v>
       </c>
       <c r="AM23" t="n">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -12606,7 +14479,10 @@
         <v>288</v>
       </c>
       <c r="AM24" t="n">
-        <v>280</v>
+        <v>283</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="25">
@@ -12729,7 +14605,10 @@
         <v>160</v>
       </c>
       <c r="AM25" t="n">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="26">
@@ -12852,53 +14731,561 @@
         <v>89</v>
       </c>
       <c r="AM26" t="n">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>830</v>
+      </c>
+      <c r="D27" t="n">
+        <v>753</v>
+      </c>
+      <c r="E27" t="n">
+        <v>751</v>
+      </c>
+      <c r="F27" t="n">
+        <v>772</v>
+      </c>
+      <c r="G27" t="n">
+        <v>743</v>
+      </c>
+      <c r="H27" t="n">
+        <v>771</v>
+      </c>
+      <c r="I27" t="n">
+        <v>753</v>
+      </c>
+      <c r="J27" t="n">
+        <v>710</v>
+      </c>
+      <c r="K27" t="n">
+        <v>718</v>
+      </c>
+      <c r="L27" t="n">
+        <v>708</v>
+      </c>
+      <c r="M27" t="n">
+        <v>702</v>
+      </c>
+      <c r="N27" t="n">
+        <v>711</v>
+      </c>
+      <c r="O27" t="n">
+        <v>717</v>
+      </c>
+      <c r="P27" t="n">
+        <v>754</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>738</v>
+      </c>
+      <c r="R27" t="n">
+        <v>720</v>
+      </c>
+      <c r="S27" t="n">
+        <v>746</v>
+      </c>
+      <c r="T27" t="n">
+        <v>700</v>
+      </c>
+      <c r="U27" t="n">
+        <v>680</v>
+      </c>
+      <c r="V27" t="n">
+        <v>735</v>
+      </c>
+      <c r="W27" t="n">
+        <v>704</v>
+      </c>
+      <c r="X27" t="n">
+        <v>700</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>693</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>692</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>649</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>656</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>661</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>650</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>619</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>579</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>611</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>613</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>612</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>548</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>598</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>590</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>623</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ve styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>796</v>
+      </c>
+      <c r="D28" t="n">
+        <v>704</v>
+      </c>
+      <c r="E28" t="n">
+        <v>684</v>
+      </c>
+      <c r="F28" t="n">
+        <v>707</v>
+      </c>
+      <c r="G28" t="n">
+        <v>665</v>
+      </c>
+      <c r="H28" t="n">
+        <v>682</v>
+      </c>
+      <c r="I28" t="n">
+        <v>683</v>
+      </c>
+      <c r="J28" t="n">
+        <v>672</v>
+      </c>
+      <c r="K28" t="n">
+        <v>661</v>
+      </c>
+      <c r="L28" t="n">
+        <v>649</v>
+      </c>
+      <c r="M28" t="n">
+        <v>656</v>
+      </c>
+      <c r="N28" t="n">
+        <v>653</v>
+      </c>
+      <c r="O28" t="n">
+        <v>641</v>
+      </c>
+      <c r="P28" t="n">
+        <v>662</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>675</v>
+      </c>
+      <c r="R28" t="n">
+        <v>657</v>
+      </c>
+      <c r="S28" t="n">
+        <v>668</v>
+      </c>
+      <c r="T28" t="n">
+        <v>640</v>
+      </c>
+      <c r="U28" t="n">
+        <v>610</v>
+      </c>
+      <c r="V28" t="n">
+        <v>643</v>
+      </c>
+      <c r="W28" t="n">
+        <v>645</v>
+      </c>
+      <c r="X28" t="n">
+        <v>636</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>638</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>639</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>629</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>633</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>626</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>605</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>586</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>548</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>588</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>567</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>570</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>532</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>551</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>538</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>570</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, mladší 55 let</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D29" t="n">
+        <v>855</v>
+      </c>
+      <c r="E29" t="n">
+        <v>817</v>
+      </c>
+      <c r="F29" t="n">
+        <v>819</v>
+      </c>
+      <c r="G29" t="n">
+        <v>764</v>
+      </c>
+      <c r="H29" t="n">
+        <v>749</v>
+      </c>
+      <c r="I29" t="n">
+        <v>723</v>
+      </c>
+      <c r="J29" t="n">
+        <v>683</v>
+      </c>
+      <c r="K29" t="n">
+        <v>635</v>
+      </c>
+      <c r="L29" t="n">
+        <v>608</v>
+      </c>
+      <c r="M29" t="n">
+        <v>636</v>
+      </c>
+      <c r="N29" t="n">
+        <v>588</v>
+      </c>
+      <c r="O29" t="n">
+        <v>575</v>
+      </c>
+      <c r="P29" t="n">
+        <v>585</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>630</v>
+      </c>
+      <c r="R29" t="n">
+        <v>588</v>
+      </c>
+      <c r="S29" t="n">
+        <v>621</v>
+      </c>
+      <c r="T29" t="n">
+        <v>575</v>
+      </c>
+      <c r="U29" t="n">
+        <v>534</v>
+      </c>
+      <c r="V29" t="n">
+        <v>564</v>
+      </c>
+      <c r="W29" t="n">
+        <v>554</v>
+      </c>
+      <c r="X29" t="n">
+        <v>558</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>567</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>553</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>567</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>558</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>539</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>515</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>504</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>470</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>509</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>486</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>471</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>459</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>456</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>453</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>466</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Styk se starší osobou a věk</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bez styku se starší osobou, starší 55 let</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>414</v>
+      </c>
+      <c r="D30" t="n">
+        <v>327</v>
+      </c>
+      <c r="E30" t="n">
+        <v>315</v>
+      </c>
+      <c r="F30" t="n">
+        <v>312</v>
+      </c>
+      <c r="G30" t="n">
+        <v>298</v>
+      </c>
+      <c r="H30" t="n">
+        <v>290</v>
+      </c>
+      <c r="I30" t="n">
+        <v>280</v>
+      </c>
+      <c r="J30" t="n">
+        <v>254</v>
+      </c>
+      <c r="K30" t="n">
+        <v>241</v>
+      </c>
+      <c r="L30" t="n">
+        <v>236</v>
+      </c>
+      <c r="M30" t="n">
+        <v>246</v>
+      </c>
+      <c r="N30" t="n">
+        <v>233</v>
+      </c>
+      <c r="O30" t="n">
+        <v>234</v>
+      </c>
+      <c r="P30" t="n">
+        <v>245</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>256</v>
+      </c>
+      <c r="R30" t="n">
+        <v>260</v>
+      </c>
+      <c r="S30" t="n">
+        <v>257</v>
+      </c>
+      <c r="T30" t="n">
+        <v>240</v>
+      </c>
+      <c r="U30" t="n">
+        <v>227</v>
+      </c>
+      <c r="V30" t="n">
+        <v>244</v>
+      </c>
+      <c r="W30" t="n">
+        <v>228</v>
+      </c>
+      <c r="X30" t="n">
+        <v>226</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>232</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>217</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>216</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>212</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>203</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>205</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>195</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>185</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>193</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>189</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>183</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>185</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>186</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>189</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Testování, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
